--- a/CURRENT WORK/SALT WORK - CODES/N = 4/MgSO4 - Done/Test_excelsheet for MgSO4 n=4.xlsx
+++ b/CURRENT WORK/SALT WORK - CODES/N = 4/MgSO4 - Done/Test_excelsheet for MgSO4 n=4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhanu\OneDrive\Desktop\FYP\Current Work\SALT WORK\N = 4\MgSO4 - Done\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhanu\OneDrive\Desktop\Final-Year-Project\CURRENT WORK\SALT WORK - CODES\N = 4\MgSO4 - Done\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45181307-4173-480A-9710-756CF4AA6D65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A15003-E827-4532-8991-44191EFAFE12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="640" activeTab="4" xr2:uid="{9CF19269-4578-4920-A34F-84FB49B64E6E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="640" firstSheet="1" activeTab="1" xr2:uid="{9CF19269-4578-4920-A34F-84FB49B64E6E}"/>
   </bookViews>
   <sheets>
     <sheet name="Exp - Osmotic Coefficient" sheetId="1" r:id="rId1"/>
@@ -642,22 +642,42 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1440" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx2"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-IN" sz="1320"/>
+              <a:t>Fig 20. Parity Plot for MgSO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" sz="900"/>
+              <a:t>4</a:t>
+            </a:r>
+            <a:r>
               <a:rPr lang="en-IN"/>
-              <a:t>Parity Plot for MgSO4 n=4</a:t>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1320"/>
+              <a:t>n=4</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.23672152777777777"/>
+          <c:y val="0.86167037037037031"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -671,11 +691,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1440" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx2"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
@@ -686,7 +706,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15447990487167654"/>
+          <c:y val="5.4362671932223855E-2"/>
+          <c:w val="0.80045215965141248"/>
+          <c:h val="0.63383820144824443"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -946,6 +976,7 @@
         <c:axId val="964017007"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1.4"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -956,11 +987,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
@@ -985,11 +1016,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx2"/>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
@@ -1017,11 +1048,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx2"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -1032,6 +1063,7 @@
         <c:crossAx val="1292910400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.2"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="1292910400"/>
@@ -1047,11 +1079,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
@@ -1076,11 +1108,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx2"/>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
@@ -1107,11 +1139,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx2"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -1149,9 +1181,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1"/>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1161,7 +1191,12 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1200">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -8416,34 +8451,38 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1440" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx2"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-IN"/>
-              <a:t>Temperature vs </a:t>
+              <a:rPr lang="en-IN" sz="1320"/>
+              <a:t>Fig 19. Temperature vs Ø for MgSO</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-IN">
-                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>Ø</a:t>
+              <a:rPr lang="en-IN" sz="900"/>
+              <a:t>4</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-IN"/>
-              <a:t> for MgSO4 for n=4</a:t>
+              <a:rPr lang="en-IN" sz="1320"/>
+              <a:t> for n=4</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17013425925925926"/>
+          <c:y val="0.89370370370370367"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8457,11 +8496,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1440" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx2"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
@@ -10848,24 +10887,19 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-IN" sz="1200">
-                    <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                    <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                    <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                  </a:rPr>
+                  <a:rPr lang="en-IN"/>
                   <a:t>Ø</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-IN"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -10882,11 +10916,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx2"/>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
@@ -10914,11 +10948,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx2"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -10945,11 +10979,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
@@ -10974,11 +11008,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx2"/>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
@@ -11005,11 +11039,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx2"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -11037,9 +11071,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.16604003113619742"/>
-          <c:y val="0.17573456238932333"/>
-          <c:w val="0.26801929192532009"/>
+          <c:x val="0.18110949074074073"/>
+          <c:y val="0.11716041666666668"/>
+          <c:w val="0.33563495370370372"/>
           <c:h val="0.11407070679738913"/>
         </c:manualLayout>
       </c:layout>
@@ -11058,11 +11092,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx2"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
@@ -11102,7 +11136,12 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1200">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -16229,13 +16268,13 @@
       <xdr:col>47</xdr:col>
       <xdr:colOff>516856</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>14033</xdr:rowOff>
+      <xdr:rowOff>14032</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>55</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>569656</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>135412</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16263,15 +16302,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>48</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -16286,8 +16325,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="37200840" y="2331720"/>
-          <a:ext cx="1234440" cy="449580"/>
+          <a:off x="37177980" y="1988820"/>
+          <a:ext cx="1158240" cy="464820"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16323,6 +16362,9 @@
             <a:rPr lang="en-IN" sz="1100"/>
             <a:t>         Data Points</a:t>
           </a:r>
+          <a:endParaRPr lang="en-IN" sz="1100">
+            <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -16339,14 +16381,14 @@
     <xdr:from>
       <xdr:col>49</xdr:col>
       <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>49</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -16361,7 +16403,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="37338000" y="2415540"/>
+          <a:off x="37338000" y="2065020"/>
           <a:ext cx="106680" cy="114300"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
@@ -16401,15 +16443,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>49</xdr:col>
-      <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>49</xdr:col>
-      <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -16424,7 +16466,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="37299900" y="2659380"/>
+          <a:off x="37292280" y="2316480"/>
           <a:ext cx="213360" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -16455,12 +16497,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.12079</cdr:x>
-      <cdr:y>0.15311</cdr:y>
+      <cdr:x>0.15552</cdr:x>
+      <cdr:y>0.0561</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.95519</cdr:x>
-      <cdr:y>0.82927</cdr:y>
+      <cdr:x>0.95695</cdr:x>
+      <cdr:y>0.68996</cdr:y>
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
@@ -16475,8 +16517,8 @@
       </cdr:nvCxnSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipV="1">
-          <a:off x="595664" y="519367"/>
-          <a:ext cx="4114800" cy="2293620"/>
+          <a:off x="671864" y="242335"/>
+          <a:ext cx="3462177" cy="2738293"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
           <a:avLst/>
@@ -16738,10 +16780,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>52800</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>113760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16770,16 +16812,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>289560</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>426720</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>175259</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -16794,7 +16836,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9166860" y="1775460"/>
+          <a:off x="8519160" y="2080260"/>
           <a:ext cx="137160" cy="45719"/>
         </a:xfrm>
         <a:prstGeom prst="arc">
@@ -18529,8 +18571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0CF3460-0F13-4869-941B-1FBF8E166A15}">
   <dimension ref="A1:AU72"/>
   <sheetViews>
-    <sheetView topLeftCell="AP6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BF11" sqref="BF11"/>
+    <sheetView tabSelected="1" topLeftCell="AP6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AU15" sqref="AU15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29785,8 +29827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{556E2A7A-4B7B-4A50-AF35-9F50D05A118E}">
   <dimension ref="A1:G316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -32672,6 +32714,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="49fa8af8-517d-491f-a3d5-7cf68fb985f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010054E8EBE579ED724DA6862405C7970F81" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="86c5e3b6225d101e522740491cefce85">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="49fa8af8-517d-491f-a3d5-7cf68fb985f9" xmlns:ns4="5d848a0f-dbe6-471c-a407-bb7a402dc859" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6c024ab2e87b0647c7181ba4225cb0c" ns3:_="" ns4:_="">
     <xsd:import namespace="49fa8af8-517d-491f-a3d5-7cf68fb985f9"/>
@@ -32900,38 +32959,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="49fa8af8-517d-491f-a3d5-7cf68fb985f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E5E9353-D2AC-43E7-9389-832F28C1F153}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{621CF4D0-A048-4BAF-9D55-9260AD6C0748}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="49fa8af8-517d-491f-a3d5-7cf68fb985f9"/>
-    <ds:schemaRef ds:uri="5d848a0f-dbe6-471c-a407-bb7a402dc859"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -32954,9 +32985,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{621CF4D0-A048-4BAF-9D55-9260AD6C0748}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E5E9353-D2AC-43E7-9389-832F28C1F153}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="49fa8af8-517d-491f-a3d5-7cf68fb985f9"/>
+    <ds:schemaRef ds:uri="5d848a0f-dbe6-471c-a407-bb7a402dc859"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/CURRENT WORK/SALT WORK - CODES/N = 4/MgSO4 - Done/Test_excelsheet for MgSO4 n=4.xlsx
+++ b/CURRENT WORK/SALT WORK - CODES/N = 4/MgSO4 - Done/Test_excelsheet for MgSO4 n=4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhanu\OneDrive\Desktop\Final-Year-Project\CURRENT WORK\SALT WORK - CODES\N = 4\MgSO4 - Done\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A15003-E827-4532-8991-44191EFAFE12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B56CA81-293A-417B-B40C-7D774B7002A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="640" firstSheet="1" activeTab="1" xr2:uid="{9CF19269-4578-4920-A34F-84FB49B64E6E}"/>
   </bookViews>
@@ -723,6 +723,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Data Points</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -961,6 +964,139 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Parity Line</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'For finding 12 unknown'!$AW$8:$AW$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4000000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'For finding 12 unknown'!$AX$8:$AX$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4000000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9066-484C-8B33-D8AFB415BCC7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -977,6 +1113,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.4"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1030,8 +1167,8 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1064,11 +1201,13 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
+        <c:minorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="1292910400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1.4"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1122,8 +1261,8 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1154,6 +1293,7 @@
         <c:crossAx val="964017007"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:minorUnit val="0.1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1165,6 +1305,46 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15057314814814812"/>
+          <c:y val="5.4166203703703703E-2"/>
+          <c:w val="0.29315925925925929"/>
+          <c:h val="9.4156481481481494E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1206,7 +1386,6 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -10898,8 +11077,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-IN"/>
-                  <a:t>Ø</a:t>
+                  <a:t>Volume</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-IN" baseline="0"/>
+                  <a:t> Fraction</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-IN"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -10930,8 +11114,8 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -10963,12 +11147,14 @@
         <c:crossAx val="1770756463"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:minorUnit val="2.5000000000000005E-2"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="1770756463"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="700"/>
+          <c:max val="600"/>
+          <c:min val="200"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -11022,8 +11208,8 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -11054,6 +11240,7 @@
         <c:crossAx val="1593290335"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:minorUnit val="25"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -16265,16 +16452,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>516856</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>14032</xdr:rowOff>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>13936</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>334072</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>54</xdr:col>
-      <xdr:colOff>569656</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>135412</xdr:rowOff>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>66736</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>104932</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16299,252 +16486,10 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>510540</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="TextBox 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C49AD6FB-3D73-483D-8699-B5A1DD7B7D92}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="37177980" y="1988820"/>
-          <a:ext cx="1158240" cy="464820"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-IN" sz="1100"/>
-            <a:t>         Data Points</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-IN" sz="1100">
-            <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-IN" sz="1100" baseline="0"/>
-            <a:t>         Parity Line</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-IN" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Flowchart: Connector 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFE064E9-2797-44CB-872A-F3C8FE056BB4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="37338000" y="2065020"/>
-          <a:ext cx="106680" cy="114300"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartConnector">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="C00000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-IN" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>289560</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="Straight Connector 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41EE2E18-3FBD-45C3-858F-9AC2FCA2BFF5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="37292280" y="2316480"/>
-          <a:ext cx="213360" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.15552</cdr:x>
-      <cdr:y>0.0561</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.95695</cdr:x>
-      <cdr:y>0.68996</cdr:y>
-    </cdr:to>
-    <cdr:cxnSp macro="">
-      <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="3" name="Straight Connector 2">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E1D867C-CA09-DA2C-47BA-8FD241010119}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvCxnSpPr/>
-      </cdr:nvCxnSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipV="1">
-          <a:off x="671864" y="242335"/>
-          <a:ext cx="3462177" cy="2738293"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-      </cdr:spPr>
-      <cdr:style>
-        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </cdr:style>
-    </cdr:cxnSp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -16585,7 +16530,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -16770,7 +16715,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -16813,15 +16758,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>251460</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>388620</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -16836,7 +16781,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8519160" y="2080260"/>
+          <a:off x="8511540" y="2301240"/>
           <a:ext cx="137160" cy="45719"/>
         </a:xfrm>
         <a:prstGeom prst="arc">
@@ -18569,10 +18514,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0CF3460-0F13-4869-941B-1FBF8E166A15}">
-  <dimension ref="A1:AU72"/>
+  <dimension ref="A1:AX72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AP6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AU15" sqref="AU15"/>
+    <sheetView tabSelected="1" topLeftCell="AP5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BK9" sqref="BK9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18608,7 +18553,7 @@
     <col min="44" max="44" width="13.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:50" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B1" s="6" t="s">
         <v>37</v>
       </c>
@@ -18627,7 +18572,7 @@
       <c r="AG1"/>
       <c r="AL1"/>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.3">
       <c r="H2"/>
       <c r="K2" s="8" t="s">
         <v>11</v>
@@ -18650,7 +18595,7 @@
       <c r="AG2" s="1"/>
       <c r="AL2"/>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.3">
       <c r="H3"/>
       <c r="K3" s="8" t="s">
         <v>12</v>
@@ -18673,7 +18618,7 @@
       <c r="AG3" s="1"/>
       <c r="AL3"/>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
       <c r="H4"/>
       <c r="R4"/>
       <c r="V4"/>
@@ -18690,7 +18635,7 @@
       <c r="AG4" s="1"/>
       <c r="AL4"/>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
       <c r="H5"/>
       <c r="R5"/>
       <c r="V5"/>
@@ -18699,7 +18644,7 @@
       <c r="AG5"/>
       <c r="AL5"/>
     </row>
-    <row r="6" spans="1:46" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:50" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -18809,7 +18754,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>0.1</v>
       </c>
@@ -18945,7 +18890,7 @@
         <v>0.60050000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>0.1</v>
       </c>
@@ -19077,8 +19022,14 @@
       <c r="AR8" s="1">
         <v>0.59550000000000003</v>
       </c>
-    </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>0.1</v>
       </c>
@@ -19216,8 +19167,16 @@
       <c r="AR9" s="1">
         <v>0.57840000000000003</v>
       </c>
-    </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AW9">
+        <f>AW8+0.1</f>
+        <v>0.1</v>
+      </c>
+      <c r="AX9">
+        <f>AX8+0.1</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>0.1</v>
       </c>
@@ -19355,8 +19314,16 @@
       <c r="AR10" s="1">
         <v>0.55569999999999997</v>
       </c>
-    </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AW10">
+        <f t="shared" ref="AW10:AX27" si="29">AW9+0.1</f>
+        <v>0.2</v>
+      </c>
+      <c r="AX10">
+        <f t="shared" si="29"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>0.1</v>
       </c>
@@ -19494,8 +19461,16 @@
       <c r="AR11" s="1">
         <v>0.52980000000000005</v>
       </c>
-    </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AW11">
+        <f t="shared" si="29"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="AX11">
+        <f t="shared" si="29"/>
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>0.1</v>
       </c>
@@ -19633,8 +19608,16 @@
       <c r="AR12" s="1">
         <v>0.50129999999999997</v>
       </c>
-    </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AW12">
+        <f t="shared" si="29"/>
+        <v>0.4</v>
+      </c>
+      <c r="AX12">
+        <f t="shared" si="29"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>0.1</v>
       </c>
@@ -19772,8 +19755,16 @@
       <c r="AR13" s="1">
         <v>0.47010000000000002</v>
       </c>
-    </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AW13">
+        <f t="shared" si="29"/>
+        <v>0.5</v>
+      </c>
+      <c r="AX13">
+        <f t="shared" si="29"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>0.5</v>
       </c>
@@ -19910,8 +19901,16 @@
       <c r="AR14" s="1">
         <v>0.51680000000000004</v>
       </c>
-    </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AW14">
+        <f t="shared" si="29"/>
+        <v>0.6</v>
+      </c>
+      <c r="AX14">
+        <f t="shared" si="29"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>0.5</v>
       </c>
@@ -20049,13 +20048,21 @@
       <c r="AR15" s="1">
         <v>0.52439999999999998</v>
       </c>
-    </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AW15">
+        <f t="shared" si="29"/>
+        <v>0.7</v>
+      </c>
+      <c r="AX15">
+        <f t="shared" si="29"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>0.5</v>
       </c>
       <c r="B16" s="1">
-        <f t="shared" ref="B16:B20" si="29">B15+25</f>
+        <f t="shared" ref="B16:B20" si="30">B15+25</f>
         <v>323.14999999999998</v>
       </c>
       <c r="C16">
@@ -20188,13 +20195,21 @@
       <c r="AR16" s="1">
         <v>0.50670000000000004</v>
       </c>
-    </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AW16">
+        <f t="shared" si="29"/>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="AX16">
+        <f t="shared" si="29"/>
+        <v>0.79999999999999993</v>
+      </c>
+    </row>
+    <row r="17" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>0.5</v>
       </c>
       <c r="B17" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>348.15</v>
       </c>
       <c r="C17">
@@ -20327,13 +20342,21 @@
       <c r="AR17" s="1">
         <v>0.47789999999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AW17">
+        <f t="shared" si="29"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="AX17">
+        <f t="shared" si="29"/>
+        <v>0.89999999999999991</v>
+      </c>
+    </row>
+    <row r="18" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>0.5</v>
       </c>
       <c r="B18" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>373.15</v>
       </c>
       <c r="C18">
@@ -20466,13 +20489,21 @@
       <c r="AR18" s="1">
         <v>0.44280000000000003</v>
       </c>
-    </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AW18">
+        <f t="shared" si="29"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="AX18">
+        <f t="shared" si="29"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="19" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>0.5</v>
       </c>
       <c r="B19" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>398.15</v>
       </c>
       <c r="C19">
@@ -20605,13 +20636,21 @@
       <c r="AR19" s="1">
         <v>0.40350000000000003</v>
       </c>
-    </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AW19">
+        <f t="shared" si="29"/>
+        <v>1.0999999999999999</v>
+      </c>
+      <c r="AX19">
+        <f t="shared" si="29"/>
+        <v>1.0999999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>0.5</v>
       </c>
       <c r="B20" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>423.15</v>
       </c>
       <c r="C20">
@@ -20744,8 +20783,16 @@
       <c r="AR20" s="1">
         <v>0.36070000000000002</v>
       </c>
-    </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AW20">
+        <f t="shared" si="29"/>
+        <v>1.2</v>
+      </c>
+      <c r="AX20">
+        <f t="shared" si="29"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>1</v>
       </c>
@@ -20882,8 +20929,16 @@
       <c r="AR21" s="1">
         <v>0.52459999999999996</v>
       </c>
-    </row>
-    <row r="22" spans="1:47" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AW21">
+        <f t="shared" si="29"/>
+        <v>1.3</v>
+      </c>
+      <c r="AX21">
+        <f t="shared" si="29"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:50" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>1</v>
       </c>
@@ -21021,13 +21076,21 @@
       <c r="AR22" s="1">
         <v>0.52990000000000004</v>
       </c>
-    </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AW22">
+        <f t="shared" si="29"/>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="AX22">
+        <f t="shared" si="29"/>
+        <v>1.4000000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>1</v>
       </c>
       <c r="B23" s="1">
-        <f t="shared" ref="B23:B27" si="30">B22+25</f>
+        <f t="shared" ref="B23:B27" si="31">B22+25</f>
         <v>323.14999999999998</v>
       </c>
       <c r="C23">
@@ -21161,20 +21224,24 @@
         <v>0.505</v>
       </c>
       <c r="AT23">
-        <f t="shared" ref="AT23:AT60" si="31">AQ23</f>
+        <f t="shared" ref="AT23:AT60" si="32">AQ23</f>
         <v>0.44633669147427785</v>
       </c>
       <c r="AU23">
-        <f t="shared" ref="AU23:AU60" si="32">AR23</f>
+        <f t="shared" ref="AU23:AU60" si="33">AR23</f>
         <v>0.505</v>
       </c>
-    </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AW23">
+        <f t="shared" si="29"/>
+        <v>1.5000000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>1</v>
       </c>
       <c r="B24" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>348.15</v>
       </c>
       <c r="C24">
@@ -21302,20 +21369,24 @@
         <v>0.46679999999999999</v>
       </c>
       <c r="AT24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.42236083461060797</v>
       </c>
       <c r="AU24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.46679999999999999</v>
       </c>
-    </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AW24">
+        <f t="shared" si="29"/>
+        <v>1.6000000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>1</v>
       </c>
       <c r="B25" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>373.15</v>
       </c>
       <c r="C25">
@@ -21443,20 +21514,24 @@
         <v>0.42130000000000001</v>
       </c>
       <c r="AT25">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.40004833994065947</v>
       </c>
       <c r="AU25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.42130000000000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AW25">
+        <f t="shared" si="29"/>
+        <v>1.7000000000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>1</v>
       </c>
       <c r="B26" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>398.15</v>
       </c>
       <c r="C26">
@@ -21584,20 +21659,24 @@
         <v>0.37169999999999997</v>
       </c>
       <c r="AT26">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.37918330828027852</v>
       </c>
       <c r="AU26">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.37169999999999997</v>
       </c>
-    </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AW26">
+        <f t="shared" si="29"/>
+        <v>1.8000000000000005</v>
+      </c>
+    </row>
+    <row r="27" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>1</v>
       </c>
       <c r="B27" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>423.15</v>
       </c>
       <c r="C27">
@@ -21725,15 +21804,19 @@
         <v>0.31979999999999997</v>
       </c>
       <c r="AT27">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.35958932546170036</v>
       </c>
       <c r="AU27">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.31979999999999997</v>
       </c>
-    </row>
-    <row r="28" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AW27">
+        <f t="shared" si="29"/>
+        <v>1.9000000000000006</v>
+      </c>
+    </row>
+    <row r="28" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>2</v>
       </c>
@@ -21865,15 +21948,15 @@
         <v>0.67179999999999995</v>
       </c>
       <c r="AT28">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.70887050128086793</v>
       </c>
       <c r="AU28">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.67179999999999995</v>
       </c>
     </row>
-    <row r="29" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>2</v>
       </c>
@@ -22006,20 +22089,20 @@
         <v>0.66320000000000001</v>
       </c>
       <c r="AT29">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.64067892062308707</v>
       </c>
       <c r="AU29">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.66320000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>2</v>
       </c>
       <c r="B30" s="1">
-        <f t="shared" ref="B30:B34" si="33">B29+25</f>
+        <f t="shared" ref="B30:B34" si="34">B29+25</f>
         <v>323.14999999999998</v>
       </c>
       <c r="C30">
@@ -22147,20 +22230,20 @@
         <v>0.61760000000000004</v>
       </c>
       <c r="AT30">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.5779813184059317</v>
       </c>
       <c r="AU30">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.61760000000000004</v>
       </c>
     </row>
-    <row r="31" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>2</v>
       </c>
       <c r="B31" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>348.15</v>
       </c>
       <c r="C31">
@@ -22288,20 +22371,20 @@
         <v>0.55449999999999999</v>
       </c>
       <c r="AT31">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.51995805605955425</v>
       </c>
       <c r="AU31">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.55449999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>2</v>
       </c>
       <c r="B32" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>373.15</v>
       </c>
       <c r="C32">
@@ -22429,11 +22512,11 @@
         <v>0.48220000000000002</v>
       </c>
       <c r="AT32">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.46596025195064389</v>
       </c>
       <c r="AU32">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.48220000000000002</v>
       </c>
     </row>
@@ -22442,7 +22525,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>398.15</v>
       </c>
       <c r="C33">
@@ -22570,11 +22653,11 @@
         <v>0.40620000000000001</v>
       </c>
       <c r="AT33">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.41546541369846995</v>
       </c>
       <c r="AU33">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.40620000000000001</v>
       </c>
     </row>
@@ -22583,7 +22666,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>423.15</v>
       </c>
       <c r="C34">
@@ -22711,11 +22794,11 @@
         <v>0.33119999999999999</v>
       </c>
       <c r="AT34">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.36804660574847703</v>
       </c>
       <c r="AU34">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.33119999999999999</v>
       </c>
     </row>
@@ -22851,11 +22934,11 @@
         <v>0.97589999999999999</v>
       </c>
       <c r="AT35">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1.0102759010997939</v>
       </c>
       <c r="AU35">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.97589999999999999</v>
       </c>
     </row>
@@ -22992,11 +23075,11 @@
         <v>0.92400000000000004</v>
       </c>
       <c r="AT36">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.90072938609366793</v>
       </c>
       <c r="AU36">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.92400000000000004</v>
       </c>
     </row>
@@ -23005,7 +23088,7 @@
         <v>3</v>
       </c>
       <c r="B37" s="1">
-        <f t="shared" ref="B37:B41" si="34">B36+25</f>
+        <f t="shared" ref="B37:B41" si="35">B36+25</f>
         <v>323.14999999999998</v>
       </c>
       <c r="C37">
@@ -23133,11 +23216,11 @@
         <v>0.83540000000000003</v>
       </c>
       <c r="AT37">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.80000869035305455</v>
       </c>
       <c r="AU37">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.83540000000000003</v>
       </c>
     </row>
@@ -23146,7 +23229,7 @@
         <v>3</v>
       </c>
       <c r="B38" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>348.15</v>
       </c>
       <c r="C38">
@@ -23274,11 +23357,11 @@
         <v>0.73170000000000002</v>
       </c>
       <c r="AT38">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.70679710211256908</v>
       </c>
       <c r="AU38">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.73170000000000002</v>
       </c>
     </row>
@@ -23287,7 +23370,7 @@
         <v>3</v>
       </c>
       <c r="B39" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>373.15</v>
       </c>
       <c r="C39">
@@ -23415,11 +23498,11 @@
         <v>0.62429999999999997</v>
       </c>
       <c r="AT39">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.62005222294000417</v>
       </c>
       <c r="AU39">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.62429999999999997</v>
       </c>
     </row>
@@ -23428,7 +23511,7 @@
         <v>3</v>
       </c>
       <c r="B40" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>398.15</v>
       </c>
       <c r="C40">
@@ -23556,11 +23639,11 @@
         <v>0.52170000000000005</v>
       </c>
       <c r="AT40">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.53893469301312558</v>
       </c>
       <c r="AU40">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.52170000000000005</v>
       </c>
     </row>
@@ -23569,7 +23652,7 @@
         <v>3</v>
       </c>
       <c r="B41" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>423.15</v>
       </c>
       <c r="C41">
@@ -23697,11 +23780,11 @@
         <v>0.43290000000000001</v>
       </c>
       <c r="AT41">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.46275866019972461</v>
       </c>
       <c r="AU41">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.43290000000000001</v>
       </c>
     </row>
@@ -23837,11 +23920,11 @@
         <v>0.55779999999999996</v>
       </c>
       <c r="AT42">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.58741191823415007</v>
       </c>
       <c r="AU42">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.55779999999999996</v>
       </c>
     </row>
@@ -24769,11 +24852,11 @@
         <v>0.54479999999999995</v>
       </c>
       <c r="AT49">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.50145530375543579</v>
       </c>
       <c r="AU49">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.54479999999999995</v>
       </c>
     </row>
@@ -24909,11 +24992,11 @@
         <v>0.56630000000000003</v>
       </c>
       <c r="AT50">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.53320259764856925</v>
       </c>
       <c r="AU50">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.56630000000000003</v>
       </c>
     </row>
@@ -25049,11 +25132,11 @@
         <v>0.59309999999999996</v>
       </c>
       <c r="AT51">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.56685118122066969</v>
       </c>
       <c r="AU51">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.59309999999999996</v>
       </c>
     </row>
@@ -25189,11 +25272,11 @@
         <v>0.62490000000000001</v>
       </c>
       <c r="AT52">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.60250504596987564</v>
       </c>
       <c r="AU52">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.62490000000000001</v>
       </c>
     </row>
@@ -25329,11 +25412,11 @@
         <v>0.70320000000000005</v>
       </c>
       <c r="AT53">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.68214015986637977</v>
       </c>
       <c r="AU53">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.70320000000000005</v>
       </c>
     </row>
@@ -25469,11 +25552,11 @@
         <v>0.74960000000000004</v>
       </c>
       <c r="AT54">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.72781837667941029</v>
       </c>
       <c r="AU54">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.74960000000000004</v>
       </c>
     </row>
@@ -25609,11 +25692,11 @@
         <v>0.80100000000000005</v>
       </c>
       <c r="AT55">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.77874544773224086</v>
       </c>
       <c r="AU55">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.80100000000000005</v>
       </c>
     </row>
@@ -25749,11 +25832,11 @@
         <v>0.85750000000000004</v>
       </c>
       <c r="AT56">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.83601129183000311</v>
       </c>
       <c r="AU56">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.85750000000000004</v>
       </c>
     </row>
@@ -25889,11 +25972,11 @@
         <v>0.98660000000000003</v>
       </c>
       <c r="AT57">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.97400931987851513</v>
       </c>
       <c r="AU57">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.98660000000000003</v>
       </c>
     </row>
@@ -26029,11 +26112,11 @@
         <v>1.0596000000000001</v>
       </c>
       <c r="AT58">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1.0569349982601937</v>
       </c>
       <c r="AU58">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1.0596000000000001</v>
       </c>
     </row>
@@ -26169,11 +26252,11 @@
         <v>1.1384000000000001</v>
       </c>
       <c r="AT59">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1.1505476204472413</v>
       </c>
       <c r="AU59">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1.1384000000000001</v>
       </c>
     </row>
@@ -26309,11 +26392,11 @@
         <v>1.1456</v>
       </c>
       <c r="AT60">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1.1593304462963541</v>
       </c>
       <c r="AU60">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1.1456</v>
       </c>
     </row>
@@ -29828,7 +29911,7 @@
   <dimension ref="A1:G316"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -32723,14 +32806,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="49fa8af8-517d-491f-a3d5-7cf68fb985f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010054E8EBE579ED724DA6862405C7970F81" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="86c5e3b6225d101e522740491cefce85">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="49fa8af8-517d-491f-a3d5-7cf68fb985f9" xmlns:ns4="5d848a0f-dbe6-471c-a407-bb7a402dc859" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6c024ab2e87b0647c7181ba4225cb0c" ns3:_="" ns4:_="">
     <xsd:import namespace="49fa8af8-517d-491f-a3d5-7cf68fb985f9"/>
@@ -32959,6 +33034,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="49fa8af8-517d-491f-a3d5-7cf68fb985f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{621CF4D0-A048-4BAF-9D55-9260AD6C0748}">
   <ds:schemaRefs>
@@ -32968,23 +33051,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D746FCFF-3BB4-4E8C-A231-3892E7653904}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="49fa8af8-517d-491f-a3d5-7cf68fb985f9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="5d848a0f-dbe6-471c-a407-bb7a402dc859"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E5E9353-D2AC-43E7-9389-832F28C1F153}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -33001,4 +33067,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D746FCFF-3BB4-4E8C-A231-3892E7653904}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="49fa8af8-517d-491f-a3d5-7cf68fb985f9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="5d848a0f-dbe6-471c-a407-bb7a402dc859"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/CURRENT WORK/SALT WORK - CODES/N = 4/MgSO4 - Done/Test_excelsheet for MgSO4 n=4.xlsx
+++ b/CURRENT WORK/SALT WORK - CODES/N = 4/MgSO4 - Done/Test_excelsheet for MgSO4 n=4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhanu\OneDrive\Desktop\Final-Year-Project\CURRENT WORK\SALT WORK - CODES\N = 4\MgSO4 - Done\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jda365-my.sharepoint.com/personal/dhanush_tamilselvan_jda_com/Documents/Desktop/Final-Year-Project/CURRENT WORK/SALT WORK - CODES/N = 4/MgSO4 - Done/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B56CA81-293A-417B-B40C-7D774B7002A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{3B56CA81-293A-417B-B40C-7D774B7002A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70094235-25B4-4A60-8422-7673FBCBBBAB}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="640" firstSheet="1" activeTab="1" xr2:uid="{9CF19269-4578-4920-A34F-84FB49B64E6E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="640" firstSheet="1" activeTab="1" xr2:uid="{9CF19269-4578-4920-A34F-84FB49B64E6E}"/>
   </bookViews>
   <sheets>
     <sheet name="Exp - Osmotic Coefficient" sheetId="1" r:id="rId1"/>
@@ -635,76 +635,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1440" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-IN" sz="1320"/>
-              <a:t>Fig 20. Parity Plot for MgSO</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-IN" sz="900"/>
-              <a:t>4</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-IN"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-IN" sz="1320"/>
-              <a:t>n=4</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.23672152777777777"/>
-          <c:y val="0.86167037037037031"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1440" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -17293,21 +17224,21 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.08984375" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.77734375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.81640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.08984375" style="1" customWidth="1"/>
     <col min="10" max="10" width="15" style="1" customWidth="1"/>
-    <col min="11" max="11" width="18.33203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="22.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18.36328125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="22.36328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -17318,7 +17249,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -17329,7 +17260,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -17345,7 +17276,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -17377,7 +17308,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>0.2</v>
       </c>
@@ -17409,7 +17340,7 @@
         <v>0.89070000000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>0.3</v>
       </c>
@@ -17442,7 +17373,7 @@
         <v>0.88539999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>0.4</v>
       </c>
@@ -17475,7 +17406,7 @@
         <v>0.87590000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>0.5</v>
       </c>
@@ -17508,7 +17439,7 @@
         <v>0.86209999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>0.6</v>
       </c>
@@ -17541,7 +17472,7 @@
         <v>0.84289999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>0.7</v>
       </c>
@@ -17574,7 +17505,7 @@
         <v>0.81669999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>0.8</v>
       </c>
@@ -17607,7 +17538,7 @@
         <v>0.78169999999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>0.9</v>
       </c>
@@ -17639,7 +17570,7 @@
         <v>0.74619999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -17672,7 +17603,7 @@
         <v>0.73799999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>1.2</v>
       </c>
@@ -17705,7 +17636,7 @@
         <v>0.72309999999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>1.4</v>
       </c>
@@ -17738,7 +17669,7 @@
         <v>0.70269999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>1.6</v>
       </c>
@@ -17771,7 +17702,7 @@
         <v>0.67730000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>1.8</v>
       </c>
@@ -17804,7 +17735,7 @@
         <v>0.64759999999999995</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>2</v>
       </c>
@@ -17837,7 +17768,7 @@
         <v>0.61499999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>2.5</v>
       </c>
@@ -17869,7 +17800,7 @@
         <v>0.60250000000000004</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>3</v>
       </c>
@@ -17902,7 +17833,7 @@
         <v>0.59550000000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E21" s="1">
         <v>2.4</v>
       </c>
@@ -17926,7 +17857,7 @@
         <v>0.57889999999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E22" s="1">
         <v>2.6</v>
       </c>
@@ -17950,7 +17881,7 @@
         <v>0.5554</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E23" s="1">
         <v>2.8</v>
       </c>
@@ -17974,7 +17905,7 @@
         <v>0.52690000000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E24" s="1">
         <v>3</v>
       </c>
@@ -17998,7 +17929,7 @@
         <v>0.49530000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E25" s="1">
         <v>3.2</v>
       </c>
@@ -18022,7 +17953,7 @@
         <v>0.4622</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E26" s="1">
         <v>3.4</v>
       </c>
@@ -18045,7 +17976,7 @@
         <v>0.52400000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E27" s="1">
         <v>3.6</v>
       </c>
@@ -18069,7 +18000,7 @@
         <v>0.52290000000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E28" s="1">
         <v>3.6175999999999999</v>
       </c>
@@ -18093,7 +18024,7 @@
         <v>0.50470000000000004</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="I29" s="1">
         <v>0.5</v>
       </c>
@@ -18108,7 +18039,7 @@
         <v>0.47570000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="I30" s="1">
         <v>0.5</v>
       </c>
@@ -18123,7 +18054,7 @@
         <v>0.439</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="I31" s="1">
         <v>0.5</v>
       </c>
@@ -18138,7 +18069,7 @@
         <v>0.3967</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="I32" s="1">
         <v>0.5</v>
       </c>
@@ -18153,7 +18084,7 @@
         <v>0.35249999999999998</v>
       </c>
     </row>
-    <row r="33" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="9:12" x14ac:dyDescent="0.35">
       <c r="I33" s="1">
         <v>1</v>
       </c>
@@ -18167,7 +18098,7 @@
         <v>0.52890000000000004</v>
       </c>
     </row>
-    <row r="34" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="9:12" x14ac:dyDescent="0.35">
       <c r="I34" s="1">
         <v>1</v>
       </c>
@@ -18182,7 +18113,7 @@
         <v>0.5292</v>
       </c>
     </row>
-    <row r="35" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="9:12" x14ac:dyDescent="0.35">
       <c r="I35" s="1">
         <v>1</v>
       </c>
@@ -18197,7 +18128,7 @@
         <v>0.5071</v>
       </c>
     </row>
-    <row r="36" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="9:12" x14ac:dyDescent="0.35">
       <c r="I36" s="1">
         <v>1</v>
       </c>
@@ -18212,7 +18143,7 @@
         <v>0.47099999999999997</v>
       </c>
     </row>
-    <row r="37" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="9:12" x14ac:dyDescent="0.35">
       <c r="I37" s="1">
         <v>1</v>
       </c>
@@ -18227,7 +18158,7 @@
         <v>0.42559999999999998</v>
       </c>
     </row>
-    <row r="38" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="9:12" x14ac:dyDescent="0.35">
       <c r="I38" s="1">
         <v>1</v>
       </c>
@@ -18242,7 +18173,7 @@
         <v>0.37490000000000001</v>
       </c>
     </row>
-    <row r="39" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="9:12" x14ac:dyDescent="0.35">
       <c r="I39" s="1">
         <v>1</v>
       </c>
@@ -18257,7 +18188,7 @@
         <v>0.32369999999999999</v>
       </c>
     </row>
-    <row r="40" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="9:12" x14ac:dyDescent="0.35">
       <c r="I40" s="1">
         <v>2</v>
       </c>
@@ -18271,7 +18202,7 @@
         <v>0.67910000000000004</v>
       </c>
     </row>
-    <row r="41" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="9:12" x14ac:dyDescent="0.35">
       <c r="I41" s="1">
         <v>2</v>
       </c>
@@ -18286,7 +18217,7 @@
         <v>0.66269999999999996</v>
       </c>
     </row>
-    <row r="42" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="9:12" x14ac:dyDescent="0.35">
       <c r="I42" s="1">
         <v>2</v>
       </c>
@@ -18301,7 +18232,7 @@
         <v>0.61980000000000002</v>
       </c>
     </row>
-    <row r="43" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="9:12" x14ac:dyDescent="0.35">
       <c r="I43" s="1">
         <v>2</v>
       </c>
@@ -18316,7 +18247,7 @@
         <v>0.55940000000000001</v>
       </c>
     </row>
-    <row r="44" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="9:12" x14ac:dyDescent="0.35">
       <c r="I44" s="1">
         <v>2</v>
       </c>
@@ -18331,7 +18262,7 @@
         <v>0.48780000000000001</v>
       </c>
     </row>
-    <row r="45" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="9:12" x14ac:dyDescent="0.35">
       <c r="I45" s="1">
         <v>2</v>
       </c>
@@ -18346,7 +18277,7 @@
         <v>0.41020000000000001</v>
       </c>
     </row>
-    <row r="46" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="9:12" x14ac:dyDescent="0.35">
       <c r="I46" s="1">
         <v>2</v>
       </c>
@@ -18361,7 +18292,7 @@
         <v>0.33160000000000001</v>
       </c>
     </row>
-    <row r="47" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="9:12" x14ac:dyDescent="0.35">
       <c r="I47" s="1">
         <v>3</v>
       </c>
@@ -18375,7 +18306,7 @@
         <v>0.97799999999999998</v>
       </c>
     </row>
-    <row r="48" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="9:12" x14ac:dyDescent="0.35">
       <c r="I48" s="1">
         <v>3</v>
       </c>
@@ -18390,7 +18321,7 @@
         <v>0.92579999999999996</v>
       </c>
     </row>
-    <row r="49" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="9:12" x14ac:dyDescent="0.35">
       <c r="I49" s="1">
         <v>3</v>
       </c>
@@ -18405,7 +18336,7 @@
         <v>0.84470000000000001</v>
       </c>
     </row>
-    <row r="50" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="9:12" x14ac:dyDescent="0.35">
       <c r="I50" s="1">
         <v>3</v>
       </c>
@@ -18420,7 +18351,7 @@
         <v>0.74299999999999999</v>
       </c>
     </row>
-    <row r="51" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="9:12" x14ac:dyDescent="0.35">
       <c r="I51" s="1">
         <v>3</v>
       </c>
@@ -18435,7 +18366,7 @@
         <v>0.62719999999999998</v>
       </c>
     </row>
-    <row r="52" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="9:12" x14ac:dyDescent="0.35">
       <c r="I52" s="1">
         <v>3</v>
       </c>
@@ -18450,7 +18381,7 @@
         <v>0.50309999999999999</v>
       </c>
     </row>
-    <row r="53" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="9:12" x14ac:dyDescent="0.35">
       <c r="I53" s="1">
         <v>3</v>
       </c>
@@ -18465,7 +18396,7 @@
         <v>0.37540000000000001</v>
       </c>
     </row>
-    <row r="54" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="9:12" x14ac:dyDescent="0.35">
       <c r="I54" s="1">
         <v>5</v>
       </c>
@@ -18479,7 +18410,7 @@
         <v>1.3436999999999999</v>
       </c>
     </row>
-    <row r="55" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="9:12" x14ac:dyDescent="0.35">
       <c r="I55" s="1">
         <v>5</v>
       </c>
@@ -18493,7 +18424,7 @@
         <v>1.0866</v>
       </c>
     </row>
-    <row r="56" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="9:12" x14ac:dyDescent="0.35">
       <c r="I56" s="1">
         <v>5</v>
       </c>
@@ -18516,44 +18447,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0CF3460-0F13-4869-941B-1FBF8E166A15}">
   <dimension ref="A1:AX72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AP5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BK9" sqref="BK9"/>
+    <sheetView tabSelected="1" topLeftCell="AY10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BJ25" sqref="BJ25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.36328125" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
-    <col min="7" max="7" width="11.21875" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="9"/>
-    <col min="10" max="11" width="8.88671875" style="1"/>
-    <col min="12" max="12" width="7.109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.88671875" style="1"/>
-    <col min="14" max="14" width="11.88671875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.44140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.44140625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="15.5546875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="8.88671875" style="9"/>
-    <col min="19" max="19" width="9.109375" customWidth="1"/>
-    <col min="21" max="21" width="14.21875" customWidth="1"/>
-    <col min="22" max="22" width="8.88671875" style="9"/>
-    <col min="25" max="25" width="8.88671875" style="9"/>
+    <col min="3" max="3" width="9.08984375" customWidth="1"/>
+    <col min="4" max="4" width="13.08984375" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.36328125" customWidth="1"/>
+    <col min="7" max="7" width="11.1796875" customWidth="1"/>
+    <col min="8" max="8" width="8.90625" style="9"/>
+    <col min="10" max="11" width="8.90625" style="1"/>
+    <col min="12" max="12" width="7.08984375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.90625" style="1"/>
+    <col min="14" max="14" width="11.90625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="13.453125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.453125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="15.54296875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.90625" style="9"/>
+    <col min="19" max="19" width="9.08984375" customWidth="1"/>
+    <col min="21" max="21" width="14.1796875" customWidth="1"/>
+    <col min="22" max="22" width="8.90625" style="9"/>
+    <col min="25" max="25" width="8.90625" style="9"/>
     <col min="28" max="28" width="12" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="12" style="9" customWidth="1"/>
     <col min="31" max="32" width="12" customWidth="1"/>
     <col min="33" max="33" width="12" style="11" customWidth="1"/>
     <col min="35" max="35" width="12" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="13.21875" customWidth="1"/>
-    <col min="38" max="38" width="8.88671875" style="9"/>
-    <col min="40" max="42" width="21.5546875" style="1" customWidth="1"/>
-    <col min="44" max="44" width="13.44140625" style="1" customWidth="1"/>
+    <col min="37" max="37" width="13.1796875" customWidth="1"/>
+    <col min="38" max="38" width="8.90625" style="9"/>
+    <col min="40" max="42" width="21.54296875" style="1" customWidth="1"/>
+    <col min="44" max="44" width="13.453125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:50" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="6" t="s">
         <v>37</v>
       </c>
@@ -18572,7 +18503,7 @@
       <c r="AG1"/>
       <c r="AL1"/>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.35">
       <c r="H2"/>
       <c r="K2" s="8" t="s">
         <v>11</v>
@@ -18595,7 +18526,7 @@
       <c r="AG2" s="1"/>
       <c r="AL2"/>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.35">
       <c r="H3"/>
       <c r="K3" s="8" t="s">
         <v>12</v>
@@ -18618,7 +18549,7 @@
       <c r="AG3" s="1"/>
       <c r="AL3"/>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.35">
       <c r="H4"/>
       <c r="R4"/>
       <c r="V4"/>
@@ -18635,7 +18566,7 @@
       <c r="AG4" s="1"/>
       <c r="AL4"/>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.35">
       <c r="H5"/>
       <c r="R5"/>
       <c r="V5"/>
@@ -18644,7 +18575,7 @@
       <c r="AG5"/>
       <c r="AL5"/>
     </row>
-    <row r="6" spans="1:50" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:50" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -18754,7 +18685,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>0.1</v>
       </c>
@@ -18890,7 +18821,7 @@
         <v>0.60050000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>0.1</v>
       </c>
@@ -19029,7 +18960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>0.1</v>
       </c>
@@ -19176,7 +19107,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>0.1</v>
       </c>
@@ -19323,7 +19254,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>0.1</v>
       </c>
@@ -19470,7 +19401,7 @@
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>0.1</v>
       </c>
@@ -19617,7 +19548,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>0.1</v>
       </c>
@@ -19764,7 +19695,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>0.5</v>
       </c>
@@ -19910,7 +19841,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>0.5</v>
       </c>
@@ -20057,7 +19988,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>0.5</v>
       </c>
@@ -20204,7 +20135,7 @@
         <v>0.79999999999999993</v>
       </c>
     </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>0.5</v>
       </c>
@@ -20351,7 +20282,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>0.5</v>
       </c>
@@ -20498,7 +20429,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>0.5</v>
       </c>
@@ -20645,7 +20576,7 @@
         <v>1.0999999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>0.5</v>
       </c>
@@ -20792,7 +20723,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="21" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>1</v>
       </c>
@@ -20938,7 +20869,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="22" spans="1:50" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:50" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>1</v>
       </c>
@@ -21085,7 +21016,7 @@
         <v>1.4000000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>1</v>
       </c>
@@ -21236,7 +21167,7 @@
         <v>1.5000000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>1</v>
       </c>
@@ -21381,7 +21312,7 @@
         <v>1.6000000000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>1</v>
       </c>
@@ -21526,7 +21457,7 @@
         <v>1.7000000000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>1</v>
       </c>
@@ -21671,7 +21602,7 @@
         <v>1.8000000000000005</v>
       </c>
     </row>
-    <row r="27" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>1</v>
       </c>
@@ -21816,7 +21747,7 @@
         <v>1.9000000000000006</v>
       </c>
     </row>
-    <row r="28" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>2</v>
       </c>
@@ -21956,7 +21887,7 @@
         <v>0.67179999999999995</v>
       </c>
     </row>
-    <row r="29" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>2</v>
       </c>
@@ -22097,7 +22028,7 @@
         <v>0.66320000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>2</v>
       </c>
@@ -22238,7 +22169,7 @@
         <v>0.61760000000000004</v>
       </c>
     </row>
-    <row r="31" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>2</v>
       </c>
@@ -22379,7 +22310,7 @@
         <v>0.55449999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>2</v>
       </c>
@@ -22520,7 +22451,7 @@
         <v>0.48220000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>2</v>
       </c>
@@ -22661,7 +22592,7 @@
         <v>0.40620000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>2</v>
       </c>
@@ -22802,7 +22733,7 @@
         <v>0.33119999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>3</v>
       </c>
@@ -22942,7 +22873,7 @@
         <v>0.97589999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>3</v>
       </c>
@@ -23083,7 +23014,7 @@
         <v>0.92400000000000004</v>
       </c>
     </row>
-    <row r="37" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>3</v>
       </c>
@@ -23224,7 +23155,7 @@
         <v>0.83540000000000003</v>
       </c>
     </row>
-    <row r="38" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>3</v>
       </c>
@@ -23365,7 +23296,7 @@
         <v>0.73170000000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>3</v>
       </c>
@@ -23506,7 +23437,7 @@
         <v>0.62429999999999997</v>
       </c>
     </row>
-    <row r="40" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>3</v>
       </c>
@@ -23647,7 +23578,7 @@
         <v>0.52170000000000005</v>
       </c>
     </row>
-    <row r="41" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>3</v>
       </c>
@@ -23788,7 +23719,7 @@
         <v>0.43290000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>0.2</v>
       </c>
@@ -23928,7 +23859,7 @@
         <v>0.55779999999999996</v>
       </c>
     </row>
-    <row r="43" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>0.3</v>
       </c>
@@ -24060,7 +23991,7 @@
         <v>0.53959999999999997</v>
       </c>
     </row>
-    <row r="44" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>0.4</v>
       </c>
@@ -24192,7 +24123,7 @@
         <v>0.52859999999999996</v>
       </c>
     </row>
-    <row r="45" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>0.6</v>
       </c>
@@ -24324,7 +24255,7 @@
         <v>0.51880000000000004</v>
       </c>
     </row>
-    <row r="46" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>0.7</v>
       </c>
@@ -24456,7 +24387,7 @@
         <v>0.51829999999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>0.8</v>
       </c>
@@ -24588,7 +24519,7 @@
         <v>0.51990000000000003</v>
       </c>
     </row>
-    <row r="48" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>0.9</v>
       </c>
@@ -24720,7 +24651,7 @@
         <v>0.52359999999999995</v>
       </c>
     </row>
-    <row r="49" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>1.2</v>
       </c>
@@ -24860,7 +24791,7 @@
         <v>0.54479999999999995</v>
       </c>
     </row>
-    <row r="50" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>1.4</v>
       </c>
@@ -25000,7 +24931,7 @@
         <v>0.56630000000000003</v>
       </c>
     </row>
-    <row r="51" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>1.6</v>
       </c>
@@ -25140,7 +25071,7 @@
         <v>0.59309999999999996</v>
       </c>
     </row>
-    <row r="52" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>1.8</v>
       </c>
@@ -25280,7 +25211,7 @@
         <v>0.62490000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>2.2000000000000002</v>
       </c>
@@ -25420,7 +25351,7 @@
         <v>0.70320000000000005</v>
       </c>
     </row>
-    <row r="54" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>2.4</v>
       </c>
@@ -25560,7 +25491,7 @@
         <v>0.74960000000000004</v>
       </c>
     </row>
-    <row r="55" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>2.6</v>
       </c>
@@ -25700,7 +25631,7 @@
         <v>0.80100000000000005</v>
       </c>
     </row>
-    <row r="56" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>2.8</v>
       </c>
@@ -25840,7 +25771,7 @@
         <v>0.85750000000000004</v>
       </c>
     </row>
-    <row r="57" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>3.2</v>
       </c>
@@ -25980,7 +25911,7 @@
         <v>0.98660000000000003</v>
       </c>
     </row>
-    <row r="58" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>3.4</v>
       </c>
@@ -26120,7 +26051,7 @@
         <v>1.0596000000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>3.6</v>
       </c>
@@ -26260,7 +26191,7 @@
         <v>1.1384000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>3.6175999999999999</v>
       </c>
@@ -26400,51 +26331,51 @@
         <v>1.1456</v>
       </c>
     </row>
-    <row r="61" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
     </row>
-    <row r="62" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
     </row>
-    <row r="63" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
     </row>
-    <row r="64" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
     </row>
@@ -26462,13 +26393,13 @@
       <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -26476,7 +26407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>3.940093261019946E-2</v>
       </c>
@@ -26484,7 +26415,7 @@
         <v>272.19626168224198</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>5.8075911624839695E-2</v>
       </c>
@@ -26492,7 +26423,7 @@
         <v>270.09345794392499</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>6.4606194837027023E-2</v>
       </c>
@@ -26500,7 +26431,7 @@
         <v>270.09345794392499</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>7.2425751990408904E-2</v>
       </c>
@@ -26508,7 +26439,7 @@
         <v>273.59813084112102</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>7.9673742064779007E-2</v>
       </c>
@@ -26516,7 +26447,7 @@
         <v>279.20560747663501</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>8.4150645386805334E-2</v>
       </c>
@@ -26524,7 +26455,7 @@
         <v>284.11214953271002</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>8.9901610308777843E-2</v>
       </c>
@@ -26532,7 +26463,7 @@
         <v>289.01869158878498</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>9.1223386184597008E-2</v>
       </c>
@@ -26540,7 +26471,7 @@
         <v>291.822429906541</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9.6442023145290726E-2</v>
       </c>
@@ -26548,7 +26479,7 @@
         <v>292.52336448598101</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9.9477533598176196E-2</v>
       </c>
@@ -26556,7 +26487,7 @@
         <v>299.53271028037301</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>9.6884126112510627E-2</v>
       </c>
@@ -26564,7 +26495,7 @@
         <v>296.02803738317698</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>9.471388056444241E-2</v>
       </c>
@@ -26572,7 +26503,7 @@
         <v>293.92523364485902</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>9.254540266239869E-2</v>
       </c>
@@ -26580,7 +26511,7 @@
         <v>296.02803738317698</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>0.10289507447968271</v>
       </c>
@@ -26588,7 +26519,7 @@
         <v>298.130841121495</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>0.10672719379747495</v>
       </c>
@@ -26596,7 +26527,7 @@
         <v>303.03738317757001</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>0.10290901110390512</v>
       </c>
@@ -26604,7 +26535,7 @@
         <v>303.03738317757001</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>0.11220286676966544</v>
       </c>
@@ -26612,7 +26543,7 @@
         <v>309.34579439252298</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>0.10968430012204518</v>
       </c>
@@ -26620,7 +26551,7 @@
         <v>306.54205607476598</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>0.11966420440438919</v>
       </c>
@@ -26628,7 +26559,7 @@
         <v>314.25233644859799</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>0.11719556472063039</v>
       </c>
@@ -26636,7 +26567,7 @@
         <v>314.25233644859799</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>0.12497342208992307</v>
       </c>
@@ -26644,7 +26575,7 @@
         <v>317.05607476635498</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>0.13022459953393611</v>
       </c>
@@ -26652,7 +26583,7 @@
         <v>321.96261682242903</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>0.1346227723613071</v>
       </c>
@@ -26660,7 +26591,7 @@
         <v>327.57009345794302</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>0.13897668870504512</v>
       </c>
@@ -26668,7 +26599,7 @@
         <v>333.17757009345701</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>0.1452254450266946</v>
       </c>
@@ -26676,7 +26607,7 @@
         <v>338.785046728971</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>0.1517652399550746</v>
       </c>
@@ -26684,7 +26615,7 @@
         <v>344.39252336448499</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>0.14717491728440613</v>
       </c>
@@ -26692,7 +26623,7 @@
         <v>346.495327102803</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>0.14525617175323022</v>
       </c>
@@ -26700,7 +26631,7 @@
         <v>350.70093457943898</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>0.14294006894173114</v>
       </c>
@@ -26708,7 +26639,7 @@
         <v>354.90654205607399</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>0.13983050546898024</v>
       </c>
@@ -26716,7 +26647,7 @@
         <v>359.813084112149</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>0.13511344325649974</v>
       </c>
@@ -26724,7 +26655,7 @@
         <v>363.31775700934497</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>0.13313811864284408</v>
       </c>
@@ -26732,7 +26663,7 @@
         <v>366.822429906541</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>0.13195790735523699</v>
       </c>
@@ -26740,7 +26671,7 @@
         <v>372.42990654205602</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>0.11409605166393115</v>
       </c>
@@ -26748,7 +26679,7 @@
         <v>391.35514018691498</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>0.10573316483687741</v>
       </c>
@@ -26756,7 +26687,7 @@
         <v>400.46728971962602</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>0.10020318391545151</v>
       </c>
@@ -26764,7 +26695,7 @@
         <v>403.27102803738302</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>8.7637920155527863E-2</v>
       </c>
@@ -26772,7 +26703,7 @@
         <v>416.58878504672799</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>6.7856844539121858E-2</v>
       </c>
@@ -26780,7 +26711,7 @@
         <v>426.40186915887801</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>5.6691101599657748E-2</v>
       </c>
@@ -26788,7 +26719,7 @@
         <v>428.50467289719597</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>4.3820512652031338E-2</v>
       </c>
@@ -26796,7 +26727,7 @@
         <v>435.51401869158798</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>3.7500188504979277E-2</v>
       </c>
@@ -26804,7 +26735,7 @@
         <v>439.71962616822401</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>2.8102218641202464E-2</v>
       </c>
@@ -26812,7 +26743,7 @@
         <v>443.22429906541998</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>2.2071139351636924E-2</v>
       </c>
@@ -26820,7 +26751,7 @@
         <v>445.327102803738</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>2.056411522452042E-2</v>
       </c>
@@ -26828,7 +26759,7 @@
         <v>449.53271028037301</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>1.5478208863131698E-2</v>
       </c>
@@ -26836,7 +26767,7 @@
         <v>455.140186915887</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>1.2401715239417915E-2</v>
       </c>
@@ -26844,7 +26775,7 @@
         <v>458.644859813084</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>9.8252660039917054E-3</v>
       </c>
@@ -26852,7 +26783,7 @@
         <v>462.14953271028003</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>8.2899653283124413E-3</v>
       </c>
@@ -26860,7 +26791,7 @@
         <v>469.15887850467197</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>6.2200028955656577E-3</v>
       </c>
@@ -26868,7 +26799,7 @@
         <v>474.06542056074699</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>5.1854503313268213E-3</v>
       </c>
@@ -26876,7 +26807,7 @@
         <v>477.57009345794302</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>6.2688646389597938E-3</v>
       </c>
@@ -26884,7 +26815,7 @@
         <v>488.08411214953202</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>3.682376789907313E-3</v>
       </c>
@@ -26892,7 +26823,7 @@
         <v>497.89719626168198</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>0.16936979186525777</v>
       </c>
@@ -26900,7 +26831,7 @@
         <v>373.83177570093397</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>0.16678957932722038</v>
       </c>
@@ -26908,7 +26839,7 @@
         <v>367.52336448598101</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>0.16419674321610564</v>
       </c>
@@ -26916,7 +26847,7 @@
         <v>362.61682242990599</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>0.16270613010506427</v>
       </c>
@@ -26924,7 +26855,7 @@
         <v>359.11214953271002</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>0.16232092825340913</v>
       </c>
@@ -26932,7 +26863,7 @@
         <v>353.50467289719597</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>0.16786675620829028</v>
       </c>
@@ -26940,7 +26871,7 @@
         <v>357.71028037383098</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>0.17261374229897372</v>
       </c>
@@ -26948,7 +26879,7 @@
         <v>361.21495327102798</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>0.17694840158764344</v>
       </c>
@@ -26956,7 +26887,7 @@
         <v>364.71962616822401</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>0.17874766920552052</v>
       </c>
@@ -26964,7 +26895,7 @@
         <v>368.92523364485902</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>0.1833667199715546</v>
       </c>
@@ -26972,7 +26903,7 @@
         <v>370.327102803738</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>0.11672681001201546</v>
       </c>
@@ -26980,7 +26911,7 @@
         <v>293.92523364485902</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>0.11296266811466504</v>
       </c>
@@ -26988,7 +26919,7 @@
         <v>282.71028037383098</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>0.10747865664497834</v>
       </c>
@@ -26996,7 +26927,7 @@
         <v>270.09345794392499</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>0.10627491799126541</v>
       </c>
@@ -27004,7 +26935,7 @@
         <v>292.52336448598101</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>0.11384746094644395</v>
       </c>
@@ -27012,7 +26943,7 @@
         <v>301.63551401869103</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>0.11386300195349584</v>
       </c>
@@ -27020,7 +26951,7 @@
         <v>307.24299065420502</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>7.789131638745278E-2</v>
       </c>
@@ -27042,17 +26973,17 @@
       <selection activeCell="M20" sqref="M20:N84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" customWidth="1"/>
-    <col min="11" max="11" width="12.33203125" customWidth="1"/>
-    <col min="14" max="14" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.6328125" customWidth="1"/>
+    <col min="8" max="8" width="12.36328125" customWidth="1"/>
+    <col min="11" max="11" width="12.36328125" customWidth="1"/>
+    <col min="14" max="14" width="12.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>39</v>
       </c>
@@ -27060,7 +26991,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -27080,7 +27011,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>3.940093261019946E-2</v>
       </c>
@@ -27112,7 +27043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>5.8075911624839695E-2</v>
       </c>
@@ -27138,7 +27069,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>6.4606194837027023E-2</v>
       </c>
@@ -27164,7 +27095,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>7.2425751990408904E-2</v>
       </c>
@@ -27190,7 +27121,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>7.9673742064779007E-2</v>
       </c>
@@ -27216,7 +27147,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>8.4150645386805334E-2</v>
       </c>
@@ -27242,7 +27173,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8.9901610308777843E-2</v>
       </c>
@@ -27268,7 +27199,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9.1223386184597008E-2</v>
       </c>
@@ -27288,7 +27219,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9.6442023145290726E-2</v>
       </c>
@@ -27314,7 +27245,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>9.9477533598176196E-2</v>
       </c>
@@ -27340,7 +27271,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>9.6884126112510627E-2</v>
       </c>
@@ -27366,7 +27297,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>9.471388056444241E-2</v>
       </c>
@@ -27392,7 +27323,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>9.254540266239869E-2</v>
       </c>
@@ -27418,7 +27349,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>0.10289507447968271</v>
       </c>
@@ -27444,7 +27375,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>0.10672719379747495</v>
       </c>
@@ -27470,7 +27401,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>0.10290901110390512</v>
       </c>
@@ -27496,7 +27427,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>0.11220286676966544</v>
       </c>
@@ -27522,7 +27453,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>0.10968430012204518</v>
       </c>
@@ -27554,7 +27485,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>0.11966420440438919</v>
       </c>
@@ -27586,7 +27517,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>0.11719556472063039</v>
       </c>
@@ -27612,7 +27543,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>0.12497342208992307</v>
       </c>
@@ -27644,7 +27575,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>0.13022459953393611</v>
       </c>
@@ -27676,7 +27607,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>0.1346227723613071</v>
       </c>
@@ -27708,7 +27639,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>0.13897668870504512</v>
       </c>
@@ -27740,7 +27671,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>0.1452254450266946</v>
       </c>
@@ -27766,7 +27697,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>0.1517652399550746</v>
       </c>
@@ -27798,7 +27729,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>0.14717491728440613</v>
       </c>
@@ -27830,7 +27761,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>0.14525617175323022</v>
       </c>
@@ -27862,7 +27793,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>0.14294006894173114</v>
       </c>
@@ -27894,7 +27825,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>0.13983050546898024</v>
       </c>
@@ -27926,7 +27857,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>0.13511344325649974</v>
       </c>
@@ -27958,7 +27889,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>0.13313811864284408</v>
       </c>
@@ -27990,7 +27921,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>0.13195790735523699</v>
       </c>
@@ -28022,7 +27953,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>0.11409605166393115</v>
       </c>
@@ -28042,7 +27973,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>0.10573316483687741</v>
       </c>
@@ -28074,7 +28005,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>0.10020318391545151</v>
       </c>
@@ -28106,7 +28037,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>8.7637920155527863E-2</v>
       </c>
@@ -28138,7 +28069,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>6.7856844539121858E-2</v>
       </c>
@@ -28170,7 +28101,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>5.6691101599657748E-2</v>
       </c>
@@ -28202,7 +28133,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>4.3820512652031338E-2</v>
       </c>
@@ -28234,7 +28165,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>3.7500188504979277E-2</v>
       </c>
@@ -28260,7 +28191,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>2.8102218641202464E-2</v>
       </c>
@@ -28286,7 +28217,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>2.2071139351636924E-2</v>
       </c>
@@ -28312,7 +28243,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>2.056411522452042E-2</v>
       </c>
@@ -28338,7 +28269,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>1.5478208863131698E-2</v>
       </c>
@@ -28358,7 +28289,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>1.2401715239417915E-2</v>
       </c>
@@ -28384,7 +28315,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>9.8252660039917054E-3</v>
       </c>
@@ -28404,7 +28335,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>8.2899653283124413E-3</v>
       </c>
@@ -28430,7 +28361,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>6.2200028955656577E-3</v>
       </c>
@@ -28450,7 +28381,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>5.1854503313268213E-3</v>
       </c>
@@ -28476,7 +28407,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>6.2688646389597938E-3</v>
       </c>
@@ -28502,7 +28433,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>3.682376789907313E-3</v>
       </c>
@@ -28528,7 +28459,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>0.16936979186525777</v>
       </c>
@@ -28554,7 +28485,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>0.16678957932722038</v>
       </c>
@@ -28574,7 +28505,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>0.16419674321610564</v>
       </c>
@@ -28600,7 +28531,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>0.16270613010506427</v>
       </c>
@@ -28626,7 +28557,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>0.16232092825340913</v>
       </c>
@@ -28652,7 +28583,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>0.16786675620829028</v>
       </c>
@@ -28672,7 +28603,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>0.17261374229897372</v>
       </c>
@@ -28698,7 +28629,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>0.17694840158764344</v>
       </c>
@@ -28724,7 +28655,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>0.17874766920552052</v>
       </c>
@@ -28750,7 +28681,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>0.1833667199715546</v>
       </c>
@@ -28776,7 +28707,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>0.11672681001201546</v>
       </c>
@@ -28802,7 +28733,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>0.11296266811466504</v>
       </c>
@@ -28828,7 +28759,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>0.10747865664497834</v>
       </c>
@@ -28854,7 +28785,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>0.10627491799126541</v>
       </c>
@@ -28880,7 +28811,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>0.11384746094644395</v>
       </c>
@@ -28906,7 +28837,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>0.11386300195349584</v>
       </c>
@@ -28932,7 +28863,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>7.789131638745278E-2</v>
       </c>
@@ -28952,7 +28883,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D72">
         <v>0.12801199999999999</v>
       </c>
@@ -28972,7 +28903,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D73">
         <v>0.12909000000000001</v>
       </c>
@@ -28992,7 +28923,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D74">
         <v>0.13015599999999999</v>
       </c>
@@ -29012,7 +28943,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D75">
         <v>0.13120999999999999</v>
       </c>
@@ -29032,7 +28963,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D76">
         <v>0.13225200000000001</v>
       </c>
@@ -29046,7 +28977,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
       <c r="G77">
         <v>8.0997799999999995E-2</v>
       </c>
@@ -29060,7 +28991,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D78">
         <v>0.1343</v>
       </c>
@@ -29080,7 +29011,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D79">
         <v>0.13530600000000001</v>
       </c>
@@ -29100,7 +29031,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
       <c r="G80">
         <v>7.6075299999999998E-2</v>
       </c>
@@ -29114,7 +29045,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="81" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="81" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D81">
         <v>0.13728199999999999</v>
       </c>
@@ -29128,7 +29059,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="82" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="82" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D82">
         <v>0.13825200000000001</v>
       </c>
@@ -29148,7 +29079,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="83" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="83" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D83">
         <v>0.13921</v>
       </c>
@@ -29168,7 +29099,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="84" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="84" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D84">
         <v>0.140156</v>
       </c>
@@ -29188,7 +29119,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="85" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="85" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D85">
         <v>0.14108999999999999</v>
       </c>
@@ -29202,7 +29133,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="86" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="86" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D86">
         <v>0.142011</v>
       </c>
@@ -29216,7 +29147,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="87" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="87" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D87">
         <v>0.14292099999999999</v>
       </c>
@@ -29230,7 +29161,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="88" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="88" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D88">
         <v>0.143819</v>
       </c>
@@ -29244,7 +29175,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="89" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="89" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D89">
         <v>0.144705</v>
       </c>
@@ -29258,7 +29189,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="90" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="90" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D90">
         <v>0.14557899999999999</v>
       </c>
@@ -29272,7 +29203,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="91" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="91" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D91">
         <v>0.14644099999999999</v>
       </c>
@@ -29286,7 +29217,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="92" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="92" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D92">
         <v>0.14729100000000001</v>
       </c>
@@ -29300,7 +29231,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="93" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="93" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D93">
         <v>0.14812900000000001</v>
       </c>
@@ -29314,7 +29245,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="94" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="94" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D94">
         <v>0.148955</v>
       </c>
@@ -29328,7 +29259,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="95" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="95" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D95">
         <v>0.14976900000000001</v>
       </c>
@@ -29342,7 +29273,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="96" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="96" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D96">
         <v>0.15057100000000001</v>
       </c>
@@ -29356,7 +29287,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="97" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="4:8" x14ac:dyDescent="0.35">
       <c r="G97">
         <v>4.5123799999999999E-2</v>
       </c>
@@ -29364,7 +29295,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="98" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D98">
         <v>0.152139</v>
       </c>
@@ -29378,7 +29309,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="99" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D99">
         <v>0.15290500000000001</v>
       </c>
@@ -29392,7 +29323,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="100" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D100">
         <v>0.15365899999999999</v>
       </c>
@@ -29406,7 +29337,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="101" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D101">
         <v>0.15440100000000001</v>
       </c>
@@ -29420,7 +29351,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="102" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D102">
         <v>0.15513099999999999</v>
       </c>
@@ -29434,7 +29365,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="103" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D103">
         <v>0.15584899999999999</v>
       </c>
@@ -29448,7 +29379,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="104" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D104">
         <v>0.156555</v>
       </c>
@@ -29462,7 +29393,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="105" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D105">
         <v>0.157249</v>
       </c>
@@ -29476,7 +29407,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="106" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D106">
         <v>0.15793099999999999</v>
       </c>
@@ -29490,7 +29421,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="107" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D107">
         <v>0.15860099999999999</v>
       </c>
@@ -29504,7 +29435,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="108" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D108">
         <v>0.15925900000000001</v>
       </c>
@@ -29518,7 +29449,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="109" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D109">
         <v>0.15990499999999999</v>
       </c>
@@ -29532,7 +29463,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="110" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D110">
         <v>0.16053899999999999</v>
       </c>
@@ -29546,7 +29477,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="111" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D111">
         <v>0.161161</v>
       </c>
@@ -29560,7 +29491,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="112" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D112">
         <v>0.161771</v>
       </c>
@@ -29574,7 +29505,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="113" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="4:8" x14ac:dyDescent="0.35">
       <c r="G113">
         <v>1.12665E-2</v>
       </c>
@@ -29582,7 +29513,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="114" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D114">
         <v>0.16295499999999999</v>
       </c>
@@ -29596,7 +29527,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="115" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D115">
         <v>0.16352900000000001</v>
       </c>
@@ -29610,7 +29541,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="116" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D116">
         <v>0.16409099999999999</v>
       </c>
@@ -29624,7 +29555,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="117" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D117">
         <v>0.16464100000000001</v>
       </c>
@@ -29638,7 +29569,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="118" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D118">
         <v>0.16517899999999999</v>
       </c>
@@ -29652,7 +29583,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="119" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D119">
         <v>0.16570499999999999</v>
       </c>
@@ -29660,7 +29591,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="120" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D120">
         <v>0.16621900000000001</v>
       </c>
@@ -29668,7 +29599,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="122" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D122">
         <v>0.167211</v>
       </c>
@@ -29676,7 +29607,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="123" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D123">
         <v>0.167689</v>
       </c>
@@ -29684,7 +29615,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="124" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D124">
         <v>0.168155</v>
       </c>
@@ -29692,7 +29623,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="125" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D125">
         <v>0.16860900000000001</v>
       </c>
@@ -29700,7 +29631,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="126" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D126">
         <v>0.16905100000000001</v>
       </c>
@@ -29708,7 +29639,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="127" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D127">
         <v>0.16948099999999999</v>
       </c>
@@ -29716,7 +29647,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="128" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D128">
         <v>0.16989899999999999</v>
       </c>
@@ -29724,7 +29655,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="130" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D130">
         <v>0.17069899999999999</v>
       </c>
@@ -29732,7 +29663,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="131" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D131">
         <v>0.17108100000000001</v>
       </c>
@@ -29740,7 +29671,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="132" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D132">
         <v>0.17145099999999999</v>
       </c>
@@ -29748,7 +29679,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="133" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D133">
         <v>0.17180899999999999</v>
       </c>
@@ -29756,7 +29687,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="134" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D134">
         <v>0.172155</v>
       </c>
@@ -29764,7 +29695,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="135" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D135">
         <v>0.172489</v>
       </c>
@@ -29772,7 +29703,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="136" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D136">
         <v>0.17281099999999999</v>
       </c>
@@ -29780,7 +29711,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="138" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D138">
         <v>0.17341899999999999</v>
       </c>
@@ -29788,7 +29719,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="139" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D139">
         <v>0.173705</v>
       </c>
@@ -29796,7 +29727,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="140" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D140">
         <v>0.17397899999999999</v>
       </c>
@@ -29804,7 +29735,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="141" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D141">
         <v>0.17424100000000001</v>
       </c>
@@ -29812,7 +29743,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="142" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D142">
         <v>0.17449100000000001</v>
       </c>
@@ -29820,7 +29751,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="143" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D143">
         <v>0.174729</v>
       </c>
@@ -29828,7 +29759,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="144" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D144">
         <v>0.174955</v>
       </c>
@@ -29836,7 +29767,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="146" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D146">
         <v>0.175371</v>
       </c>
@@ -29844,7 +29775,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="147" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D147">
         <v>0.17556099999999999</v>
       </c>
@@ -29852,7 +29783,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="148" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D148">
         <v>0.17573900000000001</v>
       </c>
@@ -29860,7 +29791,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="149" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D149">
         <v>0.17590500000000001</v>
       </c>
@@ -29868,7 +29799,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="150" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D150">
         <v>0.17605899999999999</v>
       </c>
@@ -29876,7 +29807,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="151" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D151">
         <v>0.176201</v>
       </c>
@@ -29884,7 +29815,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="152" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D152">
         <v>0.17633099999999999</v>
       </c>
@@ -29892,7 +29823,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="153" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D153">
         <v>0.17644899999999999</v>
       </c>
@@ -29914,14 +29845,14 @@
       <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" customWidth="1"/>
+    <col min="5" max="5" width="12.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>39</v>
       </c>
@@ -29929,7 +29860,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -29943,7 +29874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>3.940093261019946E-2</v>
       </c>
@@ -29957,7 +29888,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>5.8075911624839695E-2</v>
       </c>
@@ -29971,7 +29902,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>6.4606194837027023E-2</v>
       </c>
@@ -29985,7 +29916,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>7.2425751990408904E-2</v>
       </c>
@@ -29999,7 +29930,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>7.9673742064779007E-2</v>
       </c>
@@ -30013,7 +29944,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>8.4150645386805334E-2</v>
       </c>
@@ -30027,7 +29958,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8.9901610308777843E-2</v>
       </c>
@@ -30041,7 +29972,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9.1223386184597008E-2</v>
       </c>
@@ -30055,7 +29986,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9.6442023145290726E-2</v>
       </c>
@@ -30069,7 +30000,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>9.9477533598176196E-2</v>
       </c>
@@ -30083,7 +30014,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>9.6884126112510627E-2</v>
       </c>
@@ -30097,7 +30028,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>9.471388056444241E-2</v>
       </c>
@@ -30111,7 +30042,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>9.254540266239869E-2</v>
       </c>
@@ -30125,7 +30056,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>0.10289507447968271</v>
       </c>
@@ -30139,7 +30070,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>0.10672719379747495</v>
       </c>
@@ -30153,7 +30084,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>0.10290901110390512</v>
       </c>
@@ -30167,7 +30098,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>0.11220286676966544</v>
       </c>
@@ -30181,7 +30112,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>0.10968430012204518</v>
       </c>
@@ -30195,7 +30126,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>0.11966420440438919</v>
       </c>
@@ -30209,7 +30140,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>0.11719556472063039</v>
       </c>
@@ -30223,7 +30154,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>0.12497342208992307</v>
       </c>
@@ -30237,7 +30168,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>0.13022459953393611</v>
       </c>
@@ -30251,7 +30182,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>0.1346227723613071</v>
       </c>
@@ -30265,7 +30196,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>0.13897668870504512</v>
       </c>
@@ -30279,7 +30210,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>0.1452254450266946</v>
       </c>
@@ -30293,7 +30224,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>0.1517652399550746</v>
       </c>
@@ -30307,7 +30238,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>0.14717491728440613</v>
       </c>
@@ -30321,7 +30252,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>0.14525617175323022</v>
       </c>
@@ -30335,7 +30266,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>0.14294006894173114</v>
       </c>
@@ -30349,7 +30280,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>0.13983050546898024</v>
       </c>
@@ -30363,7 +30294,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>0.13511344325649974</v>
       </c>
@@ -30377,7 +30308,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>0.13313811864284408</v>
       </c>
@@ -30391,7 +30322,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>0.13195790735523699</v>
       </c>
@@ -30405,7 +30336,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>0.11409605166393115</v>
       </c>
@@ -30419,7 +30350,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>0.10573316483687741</v>
       </c>
@@ -30433,7 +30364,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>0.10020318391545151</v>
       </c>
@@ -30447,7 +30378,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>8.7637920155527863E-2</v>
       </c>
@@ -30461,7 +30392,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>6.7856844539121858E-2</v>
       </c>
@@ -30475,7 +30406,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>5.6691101599657748E-2</v>
       </c>
@@ -30489,7 +30420,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>4.3820512652031338E-2</v>
       </c>
@@ -30503,7 +30434,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>3.7500188504979277E-2</v>
       </c>
@@ -30517,7 +30448,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>2.8102218641202464E-2</v>
       </c>
@@ -30531,7 +30462,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>2.2071139351636924E-2</v>
       </c>
@@ -30545,7 +30476,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>2.056411522452042E-2</v>
       </c>
@@ -30559,7 +30490,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>1.5478208863131698E-2</v>
       </c>
@@ -30573,7 +30504,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>1.2401715239417915E-2</v>
       </c>
@@ -30587,7 +30518,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>9.8252660039917054E-3</v>
       </c>
@@ -30601,7 +30532,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>8.2899653283124413E-3</v>
       </c>
@@ -30615,7 +30546,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>6.2200028955656577E-3</v>
       </c>
@@ -30629,7 +30560,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>5.1854503313268213E-3</v>
       </c>
@@ -30643,7 +30574,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>6.2688646389597938E-3</v>
       </c>
@@ -30657,7 +30588,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>3.682376789907313E-3</v>
       </c>
@@ -30671,7 +30602,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>0.16936979186525777</v>
       </c>
@@ -30685,7 +30616,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>0.16678957932722038</v>
       </c>
@@ -30699,7 +30630,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>0.16419674321610564</v>
       </c>
@@ -30713,7 +30644,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>0.16270613010506427</v>
       </c>
@@ -30727,7 +30658,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>0.16232092825340913</v>
       </c>
@@ -30741,7 +30672,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>0.16786675620829028</v>
       </c>
@@ -30755,7 +30686,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>0.17261374229897372</v>
       </c>
@@ -30769,7 +30700,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>0.17694840158764344</v>
       </c>
@@ -30783,7 +30714,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>0.17874766920552052</v>
       </c>
@@ -30797,7 +30728,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>0.1833667199715546</v>
       </c>
@@ -30811,7 +30742,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>0.11672681001201546</v>
       </c>
@@ -30825,7 +30756,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>0.11296266811466504</v>
       </c>
@@ -30839,7 +30770,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>0.10747865664497834</v>
       </c>
@@ -30853,7 +30784,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>0.10627491799126541</v>
       </c>
@@ -30867,7 +30798,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>0.11384746094644395</v>
       </c>
@@ -30881,7 +30812,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>0.11386300195349584</v>
       </c>
@@ -30895,7 +30826,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>7.789131638745278E-2</v>
       </c>
@@ -30909,7 +30840,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D72">
         <v>0.13120999999999999</v>
       </c>
@@ -30917,7 +30848,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D73">
         <v>0.13225200000000001</v>
       </c>
@@ -30925,7 +30856,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D74">
         <v>0.1343</v>
       </c>
@@ -30933,7 +30864,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D75">
         <v>0.13530600000000001</v>
       </c>
@@ -30941,7 +30872,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D76">
         <v>0.13728199999999999</v>
       </c>
@@ -30949,7 +30880,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D77">
         <v>0.13825200000000001</v>
       </c>
@@ -30957,7 +30888,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D78">
         <v>0.13921</v>
       </c>
@@ -30965,7 +30896,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D79">
         <v>0.140156</v>
       </c>
@@ -30973,7 +30904,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D80">
         <v>0.14108999999999999</v>
       </c>
@@ -30981,7 +30912,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="81" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D81">
         <v>0.142011</v>
       </c>
@@ -30989,7 +30920,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="82" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D82">
         <v>0.14292099999999999</v>
       </c>
@@ -30997,7 +30928,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="83" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D83">
         <v>0.143819</v>
       </c>
@@ -31005,7 +30936,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="84" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D84">
         <v>0.144705</v>
       </c>
@@ -31013,7 +30944,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="85" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D85">
         <v>0.14557899999999999</v>
       </c>
@@ -31021,7 +30952,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="86" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D86">
         <v>0.14644099999999999</v>
       </c>
@@ -31029,7 +30960,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="87" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D87">
         <v>0.14729100000000001</v>
       </c>
@@ -31037,7 +30968,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="88" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D88">
         <v>0.14812900000000001</v>
       </c>
@@ -31045,7 +30976,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="89" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D89">
         <v>0.148955</v>
       </c>
@@ -31053,7 +30984,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="90" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D90">
         <v>0.14976900000000001</v>
       </c>
@@ -31061,7 +30992,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="91" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D91">
         <v>0.15057100000000001</v>
       </c>
@@ -31069,7 +31000,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="92" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D92">
         <v>0.152139</v>
       </c>
@@ -31077,7 +31008,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="93" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D93">
         <v>0.15290500000000001</v>
       </c>
@@ -31085,7 +31016,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="94" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D94">
         <v>0.15365899999999999</v>
       </c>
@@ -31093,7 +31024,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="95" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D95">
         <v>0.15440100000000001</v>
       </c>
@@ -31101,7 +31032,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="96" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D96">
         <v>0.15513099999999999</v>
       </c>
@@ -31109,7 +31040,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="97" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D97">
         <v>0.15584899999999999</v>
       </c>
@@ -31117,7 +31048,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="98" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D98">
         <v>0.156555</v>
       </c>
@@ -31125,7 +31056,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="99" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D99">
         <v>0.157249</v>
       </c>
@@ -31133,7 +31064,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="100" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D100">
         <v>0.15793099999999999</v>
       </c>
@@ -31141,7 +31072,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="101" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D101">
         <v>0.15860099999999999</v>
       </c>
@@ -31149,7 +31080,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="102" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D102">
         <v>0.15925900000000001</v>
       </c>
@@ -31157,7 +31088,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="103" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D103">
         <v>0.15990499999999999</v>
       </c>
@@ -31165,7 +31096,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="104" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D104">
         <v>0.16053899999999999</v>
       </c>
@@ -31173,7 +31104,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="105" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D105">
         <v>0.161161</v>
       </c>
@@ -31181,7 +31112,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="106" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D106">
         <v>0.161771</v>
       </c>
@@ -31189,7 +31120,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="107" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D107">
         <v>0.16295499999999999</v>
       </c>
@@ -31197,7 +31128,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="108" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D108">
         <v>0.16352900000000001</v>
       </c>
@@ -31205,7 +31136,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="109" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D109">
         <v>0.16409099999999999</v>
       </c>
@@ -31213,7 +31144,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="110" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D110">
         <v>0.16464100000000001</v>
       </c>
@@ -31221,7 +31152,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="111" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D111">
         <v>0.16517899999999999</v>
       </c>
@@ -31229,7 +31160,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="112" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D112">
         <v>0.16570499999999999</v>
       </c>
@@ -31237,7 +31168,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="113" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D113">
         <v>0.16621900000000001</v>
       </c>
@@ -31245,7 +31176,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="114" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D114">
         <v>0.167211</v>
       </c>
@@ -31253,7 +31184,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="115" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D115">
         <v>0.167689</v>
       </c>
@@ -31261,7 +31192,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="116" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D116">
         <v>0.168155</v>
       </c>
@@ -31269,7 +31200,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="117" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D117">
         <v>0.16860900000000001</v>
       </c>
@@ -31277,7 +31208,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="118" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D118">
         <v>0.16905100000000001</v>
       </c>
@@ -31285,7 +31216,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="119" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D119">
         <v>0.16948099999999999</v>
       </c>
@@ -31293,7 +31224,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="120" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D120">
         <v>0.16989899999999999</v>
       </c>
@@ -31301,7 +31232,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="121" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D121">
         <v>0.17069899999999999</v>
       </c>
@@ -31309,7 +31240,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="122" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D122">
         <v>0.17108100000000001</v>
       </c>
@@ -31317,7 +31248,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="123" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D123">
         <v>0.17145099999999999</v>
       </c>
@@ -31325,7 +31256,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="124" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D124">
         <v>0.17180899999999999</v>
       </c>
@@ -31333,7 +31264,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="125" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D125">
         <v>0.172155</v>
       </c>
@@ -31341,7 +31272,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="126" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D126">
         <v>0.172489</v>
       </c>
@@ -31349,7 +31280,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="127" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D127">
         <v>0.17281099999999999</v>
       </c>
@@ -31357,7 +31288,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="128" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D128">
         <v>0.17341899999999999</v>
       </c>
@@ -31365,7 +31296,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="129" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D129">
         <v>0.173705</v>
       </c>
@@ -31373,7 +31304,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="130" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D130">
         <v>0.17397899999999999</v>
       </c>
@@ -31381,7 +31312,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="131" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D131">
         <v>0.17424100000000001</v>
       </c>
@@ -31389,7 +31320,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="132" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D132">
         <v>0.17449100000000001</v>
       </c>
@@ -31398,7 +31329,7 @@
       </c>
       <c r="G132" s="15"/>
     </row>
-    <row r="133" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D133">
         <v>0.174729</v>
       </c>
@@ -31406,7 +31337,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="134" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D134">
         <v>0.174955</v>
       </c>
@@ -31414,7 +31345,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="135" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D135">
         <v>0.175371</v>
       </c>
@@ -31422,7 +31353,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="136" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D136">
         <v>0.17556099999999999</v>
       </c>
@@ -31430,7 +31361,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="137" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D137">
         <v>0.17573900000000001</v>
       </c>
@@ -31438,7 +31369,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="138" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D138">
         <v>0.17590500000000001</v>
       </c>
@@ -31446,7 +31377,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="139" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D139">
         <v>0.17605899999999999</v>
       </c>
@@ -31454,7 +31385,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="140" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D140">
         <v>0.176201</v>
       </c>
@@ -31462,7 +31393,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="142" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D142">
         <v>0.15085499999999999</v>
       </c>
@@ -31470,7 +31401,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="143" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D143">
         <v>0.15054600000000001</v>
       </c>
@@ -31478,7 +31409,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="144" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D144">
         <v>0.15021899999999999</v>
       </c>
@@ -31486,7 +31417,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="145" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D145">
         <v>0.14987500000000001</v>
       </c>
@@ -31494,7 +31425,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="146" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D146">
         <v>0.14951200000000001</v>
       </c>
@@ -31502,7 +31433,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="147" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D147">
         <v>0.14913100000000001</v>
       </c>
@@ -31510,7 +31441,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="148" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D148">
         <v>0.148315</v>
       </c>
@@ -31518,7 +31449,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="149" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D149">
         <v>0.14788000000000001</v>
       </c>
@@ -31526,7 +31457,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="150" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D150">
         <v>0.147427</v>
       </c>
@@ -31534,7 +31465,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="151" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D151">
         <v>0.146956</v>
       </c>
@@ -31542,7 +31473,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="152" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D152">
         <v>0.14646700000000001</v>
       </c>
@@ -31550,7 +31481,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="153" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D153">
         <v>0.14596000000000001</v>
       </c>
@@ -31558,7 +31489,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="154" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D154">
         <v>0.14543500000000001</v>
       </c>
@@ -31566,7 +31497,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="155" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D155">
         <v>0.14489199999999999</v>
       </c>
@@ -31574,7 +31505,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="156" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D156">
         <v>0.14433099999999999</v>
       </c>
@@ -31582,7 +31513,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="157" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D157">
         <v>0.14375199999999999</v>
       </c>
@@ -31590,7 +31521,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="158" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D158">
         <v>0.143155</v>
       </c>
@@ -31598,7 +31529,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="159" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D159">
         <v>0.14254</v>
       </c>
@@ -31606,7 +31537,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="160" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D160">
         <v>0.14190700000000001</v>
       </c>
@@ -31614,7 +31545,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="161" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D161">
         <v>0.14125599999999999</v>
       </c>
@@ -31622,7 +31553,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="162" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D162">
         <v>0.14058699999999999</v>
       </c>
@@ -31630,7 +31561,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="163" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D163">
         <v>0.1399</v>
       </c>
@@ -31638,7 +31569,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="164" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D164">
         <v>0.13919500000000001</v>
       </c>
@@ -31646,7 +31577,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="165" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D165">
         <v>0.13847200000000001</v>
       </c>
@@ -31654,7 +31585,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="166" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D166">
         <v>0.13773099999999999</v>
       </c>
@@ -31662,7 +31593,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="167" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D167">
         <v>0.13697200000000001</v>
       </c>
@@ -31670,7 +31601,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="168" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D168">
         <v>0.13619500000000001</v>
       </c>
@@ -31678,7 +31609,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="169" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D169">
         <v>0.13539999999999999</v>
       </c>
@@ -31686,7 +31617,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="170" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D170">
         <v>0.13458700000000001</v>
       </c>
@@ -31694,7 +31625,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="171" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D171">
         <v>0.13375600000000001</v>
       </c>
@@ -31702,7 +31633,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="172" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D172">
         <v>0.132907</v>
       </c>
@@ -31710,7 +31641,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="174" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D174">
         <v>0.13115499999999999</v>
       </c>
@@ -31718,7 +31649,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="175" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D175">
         <v>0.13025200000000001</v>
       </c>
@@ -31726,7 +31657,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="176" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D176">
         <v>0.129331</v>
       </c>
@@ -31734,7 +31665,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="177" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D177">
         <v>0.12839200000000001</v>
       </c>
@@ -31742,7 +31673,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="178" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D178">
         <v>0.12743499999999999</v>
       </c>
@@ -31750,7 +31681,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="179" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D179">
         <v>0.12645999999999999</v>
       </c>
@@ -31758,7 +31689,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="180" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D180">
         <v>0.125467</v>
       </c>
@@ -31766,7 +31697,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="181" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D181">
         <v>0.124456</v>
       </c>
@@ -31774,7 +31705,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="182" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D182">
         <v>0.123427</v>
       </c>
@@ -31782,7 +31713,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="183" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D183">
         <v>0.12238</v>
       </c>
@@ -31790,7 +31721,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="185" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D185">
         <v>0.12023200000000001</v>
       </c>
@@ -31798,7 +31729,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="186" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D186">
         <v>0.119131</v>
       </c>
@@ -31806,7 +31737,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="187" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D187">
         <v>0.11801200000000001</v>
       </c>
@@ -31814,7 +31745,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="188" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D188">
         <v>0.11687500000000001</v>
       </c>
@@ -31822,7 +31753,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="189" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D189">
         <v>0.11572</v>
       </c>
@@ -31830,7 +31761,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="190" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D190">
         <v>0.114548</v>
       </c>
@@ -31838,7 +31769,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="191" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D191">
         <v>0.113357</v>
       </c>
@@ -31846,7 +31777,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="192" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D192">
         <v>0.112148</v>
       </c>
@@ -31854,7 +31785,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="193" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D193">
         <v>0.11092100000000001</v>
       </c>
@@ -31862,7 +31793,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="194" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D194">
         <v>0.109676</v>
       </c>
@@ -31870,7 +31801,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="195" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D195">
         <v>0.108413</v>
       </c>
@@ -31878,7 +31809,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="196" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D196">
         <v>0.10713200000000001</v>
       </c>
@@ -31886,7 +31817,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="197" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D197">
         <v>0.105833</v>
       </c>
@@ -31894,7 +31825,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="198" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D198">
         <v>0.104516</v>
       </c>
@@ -31902,7 +31833,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="199" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D199">
         <v>0.10318099999999999</v>
       </c>
@@ -31910,7 +31841,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="200" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D200">
         <v>0.101828</v>
       </c>
@@ -31918,7 +31849,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="201" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D201">
         <v>0.100457</v>
       </c>
@@ -31926,7 +31857,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="202" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D202">
         <v>9.9068400000000001E-2</v>
       </c>
@@ -31934,7 +31865,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="203" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D203">
         <v>9.7661499999999998E-2</v>
       </c>
@@ -31942,7 +31873,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="204" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D204">
         <v>9.6236500000000003E-2</v>
       </c>
@@ -31950,7 +31881,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="205" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D205">
         <v>9.4793600000000006E-2</v>
       </c>
@@ -31958,7 +31889,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="206" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D206">
         <v>9.3332700000000005E-2</v>
       </c>
@@ -31966,7 +31897,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="207" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D207">
         <v>9.1853900000000002E-2</v>
       </c>
@@ -31974,7 +31905,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="208" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D208">
         <v>9.0357000000000007E-2</v>
       </c>
@@ -31982,7 +31913,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="209" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D209">
         <v>8.8842099999999993E-2</v>
       </c>
@@ -31990,7 +31921,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="210" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D210">
         <v>8.7309200000000003E-2</v>
       </c>
@@ -31998,7 +31929,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="211" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D211">
         <v>8.5758299999999996E-2</v>
       </c>
@@ -32006,7 +31937,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="212" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D212">
         <v>8.41895E-2</v>
       </c>
@@ -32014,7 +31945,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="213" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D213">
         <v>8.2602599999999998E-2</v>
       </c>
@@ -32022,7 +31953,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="214" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D214">
         <v>8.0997799999999995E-2</v>
       </c>
@@ -32030,7 +31961,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="215" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D215">
         <v>7.9374899999999998E-2</v>
       </c>
@@ -32038,7 +31969,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="216" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D216">
         <v>7.77341E-2</v>
       </c>
@@ -32046,7 +31977,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="217" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D217">
         <v>7.6075299999999998E-2</v>
       </c>
@@ -32054,7 +31985,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="218" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D218">
         <v>7.4398500000000006E-2</v>
       </c>
@@ -32062,7 +31993,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="219" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D219">
         <v>7.2703699999999996E-2</v>
       </c>
@@ -32070,7 +32001,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="220" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D220">
         <v>7.0990899999999996E-2</v>
       </c>
@@ -32078,7 +32009,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="221" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D221">
         <v>6.9260100000000005E-2</v>
       </c>
@@ -32086,7 +32017,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="222" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D222">
         <v>6.7511299999999996E-2</v>
       </c>
@@ -32094,7 +32025,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="223" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="223" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D223">
         <v>6.57446E-2</v>
       </c>
@@ -32102,7 +32033,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="224" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="224" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D224">
         <v>6.3959799999999997E-2</v>
       </c>
@@ -32110,7 +32041,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="225" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="225" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D225">
         <v>6.21571E-2</v>
       </c>
@@ -32118,7 +32049,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="226" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="226" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D226">
         <v>6.0336399999999998E-2</v>
       </c>
@@ -32126,7 +32057,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="227" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D227">
         <v>5.84977E-2</v>
       </c>
@@ -32134,7 +32065,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="228" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D228">
         <v>5.66411E-2</v>
       </c>
@@ -32142,7 +32073,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="229" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D229">
         <v>5.4766500000000003E-2</v>
       </c>
@@ -32150,7 +32081,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="230" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D230">
         <v>5.2873799999999999E-2</v>
       </c>
@@ -32158,7 +32089,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="231" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D231">
         <v>5.0963300000000003E-2</v>
       </c>
@@ -32166,7 +32097,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="232" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D232">
         <v>4.9034700000000001E-2</v>
       </c>
@@ -32174,7 +32105,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="233" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D233">
         <v>4.7088199999999997E-2</v>
       </c>
@@ -32182,7 +32113,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="234" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D234">
         <v>4.5123799999999999E-2</v>
       </c>
@@ -32190,7 +32121,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="235" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D235">
         <v>4.3141400000000003E-2</v>
       </c>
@@ -32198,7 +32129,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="236" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D236">
         <v>4.1140999999999997E-2</v>
       </c>
@@ -32206,7 +32137,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="237" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D237">
         <v>3.9122700000000003E-2</v>
       </c>
@@ -32214,7 +32145,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="238" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D238">
         <v>3.7086500000000001E-2</v>
       </c>
@@ -32222,7 +32153,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="239" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D239">
         <v>3.5032399999999998E-2</v>
       </c>
@@ -32230,7 +32161,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="240" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D240">
         <v>3.2960400000000001E-2</v>
       </c>
@@ -32238,7 +32169,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="241" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D241">
         <v>3.0870399999999999E-2</v>
       </c>
@@ -32246,7 +32177,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="242" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="242" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D242">
         <v>2.8762699999999999E-2</v>
       </c>
@@ -32254,7 +32185,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="243" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D243">
         <v>2.66371E-2</v>
       </c>
@@ -32262,7 +32193,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="244" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D244">
         <v>2.44937E-2</v>
       </c>
@@ -32270,7 +32201,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="245" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D245">
         <v>2.23327E-2</v>
       </c>
@@ -32278,7 +32209,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="246" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="246" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D246">
         <v>2.4388199999999999E-2</v>
       </c>
@@ -32286,7 +32217,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="247" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="247" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D247">
         <v>1.79577E-2</v>
       </c>
@@ -32294,7 +32225,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="248" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="248" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D248">
         <v>1.6574100000000001E-2</v>
       </c>
@@ -32302,7 +32233,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="249" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="249" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D249">
         <v>1.3513600000000001E-2</v>
       </c>
@@ -32310,7 +32241,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="250" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="250" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D250">
         <v>1.12665E-2</v>
       </c>
@@ -32318,7 +32249,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="251" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="251" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D251">
         <v>9.0040299999999997E-3</v>
       </c>
@@ -32326,7 +32257,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="252" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="252" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D252">
         <v>6.73027E-3</v>
       </c>
@@ -32334,7 +32265,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="256" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="256" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D256">
         <v>0.13856099999999999</v>
       </c>
@@ -32342,7 +32273,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="257" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="257" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D257">
         <v>0.138576</v>
       </c>
@@ -32350,7 +32281,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="259" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="259" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D259">
         <v>0.13863600000000001</v>
       </c>
@@ -32358,7 +32289,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="260" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="260" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D260">
         <v>0.138681</v>
       </c>
@@ -32366,7 +32297,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="261" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="261" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D261">
         <v>0.138736</v>
       </c>
@@ -32374,7 +32305,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="262" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="262" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D262">
         <v>0.13880100000000001</v>
       </c>
@@ -32382,7 +32313,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="264" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="264" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D264">
         <v>0.138961</v>
       </c>
@@ -32390,7 +32321,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="265" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="265" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D265">
         <v>0.13905600000000001</v>
       </c>
@@ -32398,7 +32329,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="266" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="266" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D266">
         <v>0.13916100000000001</v>
       </c>
@@ -32406,7 +32337,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="267" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="267" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D267">
         <v>0.13927600000000001</v>
       </c>
@@ -32414,7 +32345,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="268" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="268" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D268">
         <v>0.139401</v>
       </c>
@@ -32422,7 +32353,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="269" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="269" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D269">
         <v>0.13953599999999999</v>
       </c>
@@ -32430,7 +32361,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="270" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="270" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D270">
         <v>0.139681</v>
       </c>
@@ -32438,7 +32369,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="271" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="271" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D271">
         <v>0.13983599999999999</v>
       </c>
@@ -32446,7 +32377,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="272" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="272" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D272">
         <v>0.140176</v>
       </c>
@@ -32454,7 +32385,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="273" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="273" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D273">
         <v>0.14036100000000001</v>
       </c>
@@ -32462,7 +32393,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="274" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="274" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D274">
         <v>0.14055599999999999</v>
       </c>
@@ -32470,7 +32401,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="275" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="275" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D275">
         <v>0.140761</v>
       </c>
@@ -32478,7 +32409,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="276" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="276" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D276">
         <v>0.14097599999999999</v>
       </c>
@@ -32486,7 +32417,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="277" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="277" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D277">
         <v>0.14120099999999999</v>
       </c>
@@ -32494,7 +32425,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="278" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="278" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D278">
         <v>0.14143600000000001</v>
       </c>
@@ -32502,7 +32433,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="279" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="279" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D279">
         <v>0.141681</v>
       </c>
@@ -32510,7 +32441,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="280" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="280" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D280">
         <v>0.14193600000000001</v>
       </c>
@@ -32518,7 +32449,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="281" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="281" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D281">
         <v>0.14220099999999999</v>
       </c>
@@ -32526,7 +32457,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="282" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="282" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D282">
         <v>0.14247599999999999</v>
       </c>
@@ -32534,7 +32465,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="283" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="283" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D283">
         <v>0.142761</v>
       </c>
@@ -32542,7 +32473,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="286" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="286" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D286">
         <v>0.14336099999999999</v>
       </c>
@@ -32550,7 +32481,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="287" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="287" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D287">
         <v>0.143676</v>
       </c>
@@ -32558,7 +32489,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="288" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="288" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D288">
         <v>0.14400099999999999</v>
       </c>
@@ -32566,7 +32497,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="289" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="289" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D289">
         <v>0.14433599999999999</v>
       </c>
@@ -32574,7 +32505,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="290" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="290" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D290">
         <v>0.144681</v>
       </c>
@@ -32582,7 +32513,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="291" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="291" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D291">
         <v>0.145036</v>
       </c>
@@ -32590,7 +32521,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="292" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="292" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D292">
         <v>0.14577599999999999</v>
       </c>
@@ -32598,7 +32529,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="293" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="293" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D293">
         <v>0.14616100000000001</v>
       </c>
@@ -32606,7 +32537,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="294" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="294" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D294">
         <v>0.14655499999999999</v>
       </c>
@@ -32614,7 +32545,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="295" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="295" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D295">
         <v>0.14737500000000001</v>
       </c>
@@ -32622,7 +32553,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="296" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="296" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D296">
         <v>0.14779999999999999</v>
       </c>
@@ -32630,7 +32561,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="297" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="297" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D297">
         <v>0.14823500000000001</v>
       </c>
@@ -32638,7 +32569,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="298" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="298" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D298">
         <v>0.14868000000000001</v>
       </c>
@@ -32646,7 +32577,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="299" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="299" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D299">
         <v>0.14913499999999999</v>
       </c>
@@ -32654,7 +32585,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="300" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="300" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D300">
         <v>0.14960000000000001</v>
       </c>
@@ -32662,7 +32593,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="301" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="301" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D301">
         <v>0.15007499999999999</v>
       </c>
@@ -32670,7 +32601,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="302" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="302" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D302">
         <v>0.15056</v>
       </c>
@@ -32678,7 +32609,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="303" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="303" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D303">
         <v>0.15105499999999999</v>
       </c>
@@ -32686,7 +32617,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="304" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="304" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D304">
         <v>0.15156</v>
       </c>
@@ -32694,7 +32625,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="305" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="305" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D305">
         <v>0.15207499999999999</v>
       </c>
@@ -32702,7 +32633,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="306" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="306" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D306">
         <v>0.15260000000000001</v>
       </c>
@@ -32710,7 +32641,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="307" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="307" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D307">
         <v>0.15313499999999999</v>
       </c>
@@ -32718,7 +32649,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="308" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="308" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D308">
         <v>0.15368000000000001</v>
       </c>
@@ -32726,7 +32657,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="309" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="309" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D309">
         <v>0.15423500000000001</v>
       </c>
@@ -32734,7 +32665,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="310" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="310" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D310">
         <v>0.15537500000000001</v>
       </c>
@@ -32742,7 +32673,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="311" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="311" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D311">
         <v>0.15126600000000001</v>
       </c>
@@ -32750,7 +32681,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="312" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="312" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D312">
         <v>0.156555</v>
       </c>
@@ -32758,7 +32689,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="313" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="313" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D313">
         <v>0.15715999999999999</v>
       </c>
@@ -32766,7 +32697,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="314" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="314" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D314">
         <v>0.15840000000000001</v>
       </c>
@@ -32774,7 +32705,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="315" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="315" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D315">
         <v>0.15903500000000001</v>
       </c>
@@ -32782,7 +32713,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="316" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="316" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D316">
         <v>0.15967999999999999</v>
       </c>
@@ -32806,6 +32737,14 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="49fa8af8-517d-491f-a3d5-7cf68fb985f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010054E8EBE579ED724DA6862405C7970F81" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="86c5e3b6225d101e522740491cefce85">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="49fa8af8-517d-491f-a3d5-7cf68fb985f9" xmlns:ns4="5d848a0f-dbe6-471c-a407-bb7a402dc859" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6c024ab2e87b0647c7181ba4225cb0c" ns3:_="" ns4:_="">
     <xsd:import namespace="49fa8af8-517d-491f-a3d5-7cf68fb985f9"/>
@@ -33034,14 +32973,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="49fa8af8-517d-491f-a3d5-7cf68fb985f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{621CF4D0-A048-4BAF-9D55-9260AD6C0748}">
   <ds:schemaRefs>
@@ -33051,6 +32982,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D746FCFF-3BB4-4E8C-A231-3892E7653904}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="49fa8af8-517d-491f-a3d5-7cf68fb985f9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="5d848a0f-dbe6-471c-a407-bb7a402dc859"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E5E9353-D2AC-43E7-9389-832F28C1F153}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -33067,21 +33015,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D746FCFF-3BB4-4E8C-A231-3892E7653904}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="49fa8af8-517d-491f-a3d5-7cf68fb985f9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="5d848a0f-dbe6-471c-a407-bb7a402dc859"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>